--- a/Apresentação/Lista slides e tempo.xlsx
+++ b/Apresentação/Lista slides e tempo.xlsx
@@ -1,29 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Apresentação\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CBAA4-4D70-4213-BDA5-8470571399BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Motivação</t>
+  </si>
+  <si>
+    <t>Fatores Humanos</t>
+  </si>
+  <si>
+    <t>Carga Mental</t>
+  </si>
+  <si>
+    <t>Consc. Situac.</t>
+  </si>
+  <si>
+    <t>Realidade Ext</t>
+  </si>
+  <si>
+    <t>Co-Design</t>
+  </si>
+  <si>
+    <t>Objetivos</t>
+  </si>
+  <si>
+    <t>Aborgagem</t>
+  </si>
+  <si>
+    <t>Materiais e Metodos</t>
+  </si>
+  <si>
+    <t>Perfil dos participantes</t>
+  </si>
+  <si>
+    <t>Sequencia de Analise</t>
+  </si>
+  <si>
+    <t>#1 Demanda Mental</t>
+  </si>
+  <si>
+    <t>#1 Nasa Score</t>
+  </si>
+  <si>
+    <t>#1 Sagat</t>
+  </si>
+  <si>
+    <t>#1 Question</t>
+  </si>
+  <si>
+    <t>#1 BPM</t>
+  </si>
+  <si>
+    <t>#1 SDNN</t>
+  </si>
+  <si>
+    <t>#1 GSR</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>#1 Final</t>
+  </si>
+  <si>
+    <t>#2 Demanda Mental</t>
+  </si>
+  <si>
+    <t>#2 Nasa Score</t>
+  </si>
+  <si>
+    <t>#2 Sagat</t>
+  </si>
+  <si>
+    <t>#2 Question</t>
+  </si>
+  <si>
+    <t>#2 BPM</t>
+  </si>
+  <si>
+    <t>#2 Final</t>
+  </si>
+  <si>
+    <t>#2 GSR</t>
+  </si>
+  <si>
+    <t>#2 SDNN</t>
+  </si>
+  <si>
+    <t>Conclução #1</t>
+  </si>
+  <si>
+    <t>Conclução #2</t>
+  </si>
+  <si>
+    <t>Futuro</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Slides Uteis</t>
+  </si>
+  <si>
+    <t>Segundos</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Formato de tempo</t>
+  </si>
+  <si>
+    <t>Expectativa</t>
+  </si>
+  <si>
+    <t>Acumulado Segundos</t>
+  </si>
+  <si>
+    <t>Acumulado Minutos</t>
+  </si>
+  <si>
+    <t>Step 1 a</t>
+  </si>
+  <si>
+    <t>Step 1 b</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Fase 1</t>
+  </si>
+  <si>
+    <t>Fase 2</t>
+  </si>
+  <si>
+    <t>Fase 3a</t>
+  </si>
+  <si>
+    <t>Fase 3b</t>
+  </si>
+  <si>
+    <t>Fase 3c</t>
+  </si>
+  <si>
+    <t>Fase 4a</t>
+  </si>
+  <si>
+    <t>Fase 4b</t>
+  </si>
+  <si>
+    <t>Fase 5a</t>
+  </si>
+  <si>
+    <t>Fase 5b</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[mm]:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +264,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +550,3332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>50/COUNT(B2:B90)</f>
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <f>F2</f>
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <f>F2/60</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I2">
+        <f>G2/60</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>INT(I2)&amp;":"&amp;INT((I2-INT(I2))*60)</f>
+        <v>0:26</v>
+      </c>
+      <c r="K2" t="str">
+        <f>INT($A$2*B2)&amp;":"&amp;TEXT(INT(($A$2*B2-INT($A$2*B2))*60),0)</f>
+        <v>0:33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>IF(NOT(OR(C3="Agenda",C3="Final",D3=D2)),E2+1,E2+0)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f>F3+G2</f>
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I66" si="0">F3/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J66" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
+        <v>0:36</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
+        <v>1:7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>60+47</f>
+        <v>107</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="3">F4+G3</f>
+        <v>143</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.7833333333333334</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.3833333333333333</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2:23</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>1:41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E68" si="4">IF(NOT(OR(C5="Capa",C5="Agenda",C5="Final",D5=D4)),E4+1,E4+0)</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I5">
+        <f>G5/60</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2:33</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>2:14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I6">
+        <f>G6/60</f>
+        <v>2.7166666666666668</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2:43</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>2:48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.3166666666666669</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3:19</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>3:22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f>2*60+53</f>
+        <v>173</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>372</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6:12</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>3:55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7:20</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>4:29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7:50</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>5:3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8:15</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>5:37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8:33</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>6:10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>536</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8:56</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>6:44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>9.4333333333333336</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9:26</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>7:18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>589</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>9.8166666666666664</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>9:49</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>7:51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>10.266666666666667</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10:16</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>8:25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>10.266666666666667</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10:16</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>8:59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>691</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>11.516666666666667</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>11:31</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>9:33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>721</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>12.016666666666667</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12:1</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>10:6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>12.216666666666667</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12:13</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>10:40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>12.35</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12:21</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>11:14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>767</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>12.783333333333333</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>12:47</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>11:47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>784</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>13.066666666666666</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>13:3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>12:21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>813</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>13.55</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>13:33</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>12:55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>831</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>13.85</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>13:51</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>13:28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>855</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>14:15</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>14:2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>855</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>14:15</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>14:36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>913</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>15.216666666666667</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15:13</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>15:10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>130</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>1043</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>17.383333333333333</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>17:23</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>15:43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <f>60+26</f>
+        <v>86</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1129</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>18.816666666666666</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>18:49</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>16:17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>49</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>1178</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>19.633333333333333</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>19:38</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>16:51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <f>60+22</f>
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.3666666666666667</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>21:0</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>17:24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <f>60+15</f>
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>1335</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>22.25</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>22:15</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>17:58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>1386</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>23.1</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>23:6</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="2"/>
+        <v>18:32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>1418</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>23.633333333333333</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>23:38</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="2"/>
+        <v>19:6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>1448</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>24.133333333333333</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>24:7</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
+        <v>19:39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>1508</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>25.133333333333333</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>25:7</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
+        <v>20:13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>1508</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>25.133333333333333</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>25:7</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v>20:47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>1532</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>25.533333333333335</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>25:32</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="2"/>
+        <v>21:20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>52</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>1584</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>26:23</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
+        <v>21:54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>1619</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>26.983333333333334</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>26:59</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
+        <v>22:28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1635</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>27:15</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
+        <v>23:2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>1667</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>27.783333333333335</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>27:47</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v>23:35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>1681</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>28.016666666666666</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>28:0</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="2"/>
+        <v>24:9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>1693</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>28.216666666666665</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>28:12</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="2"/>
+        <v>24:43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="F46">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>1721</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>28.683333333333334</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>28:41</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="2"/>
+        <v>25:16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>1734</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>28.9</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>28:53</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="2"/>
+        <v>25:50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>29.4</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>29:23</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="2"/>
+        <v>26:24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>1796</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>29.933333333333334</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>29:56</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="2"/>
+        <v>26:57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>31</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>1827</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>30.45</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>30:27</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="2"/>
+        <v>27:31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>1840</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>30:40</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="2"/>
+        <v>28:5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>1850</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>30:49</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="2"/>
+        <v>28:39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>37</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>1868</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>31.133333333333333</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:7</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="2"/>
+        <v>29:12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>38</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>1876</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>31.266666666666666</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:15</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="2"/>
+        <v>29:46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>38</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="2"/>
+        <v>30:20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="2"/>
+        <v>30:53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>39</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="2"/>
+        <v>31:27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="2"/>
+        <v>32:1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="2"/>
+        <v>32:35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="2"/>
+        <v>33:8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="2"/>
+        <v>33:42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="2"/>
+        <v>34:16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>41</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v>34:49</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v>35:23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>42</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v>35:57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>42</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>31:42</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="2"/>
+        <v>36:31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>43</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>1902</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:I90" si="5">F67/60</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" ref="J67:J90" si="6">INT(I67)&amp;":"&amp;INT((I67-INT(I67))*60)</f>
+        <v>31:42</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K90" si="7">INT($A$2*B67)&amp;":"&amp;TEXT(INT(($A$2*B67-INT($A$2*B67))*60),0)</f>
+        <v>37:4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G90" si="8">F68+G67</f>
+        <v>1902</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="7"/>
+        <v>37:38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>44</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E90" si="9">IF(NOT(OR(C69="Capa",C69="Agenda",C69="Final",D69=D68)),E68+1,E68+0)</f>
+        <v>37</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="7"/>
+        <v>38:12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>44</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="7"/>
+        <v>38:45</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>44</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="7"/>
+        <v>39:19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>45</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="7"/>
+        <v>39:53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73">
+        <v>45</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="7"/>
+        <v>40:26</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="7"/>
+        <v>41:0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75">
+        <v>46</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="7"/>
+        <v>41:34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76">
+        <v>47</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="7"/>
+        <v>42:8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77">
+        <v>47</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="7"/>
+        <v>42:41</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="7"/>
+        <v>43:15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="7"/>
+        <v>43:49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80">
+        <v>48</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="7"/>
+        <v>44:22</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>48</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="7"/>
+        <v>44:56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>49</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="7"/>
+        <v>45:30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="7"/>
+        <v>46:4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="7"/>
+        <v>46:37</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85">
+        <v>51</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="7"/>
+        <v>47:11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86">
+        <v>51</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="7"/>
+        <v>47:45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87">
+        <v>51</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="7"/>
+        <v>48:18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>51</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="7"/>
+        <v>48:52</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>51</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="7"/>
+        <v>49:26</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>52</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>1902</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>31:42</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="7"/>
+        <v>50:0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Apresentação/Lista slides e tempo.xlsx
+++ b/Apresentação/Lista slides e tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Apresentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITA\Dissertacao\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CBAA4-4D70-4213-BDA5-8470571399BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A62C94-FC81-4C80-80C8-5F4A20E1BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -226,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[mm]:ss"/>
+    <numFmt numFmtId="164" formatCode="[mm]:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,8 +265,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,21 +2662,24 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
+      <c r="F56">
+        <v>37</v>
+      </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>1939</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>32.31666666666667</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>32:19</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
@@ -2698,21 +2700,24 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
+      <c r="F57">
+        <v>29</v>
+      </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>1968</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>32:47</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
@@ -2733,21 +2738,24 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2024</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>33.733333333333334</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>33:44</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
@@ -2768,21 +2776,24 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
       <c r="G59">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2032</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>33.866666666666667</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>33:52</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
@@ -2803,21 +2814,24 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2039</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>33.983333333333334</v>
       </c>
       <c r="J60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>33:59</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
@@ -2838,21 +2852,24 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
       <c r="G61">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2052</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>34:12</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
@@ -2873,21 +2890,24 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
+      <c r="F62">
+        <v>25</v>
+      </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2077</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>34.616666666666667</v>
       </c>
       <c r="J62" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>34:37</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
@@ -2908,21 +2928,24 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
       <c r="G63">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2091</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>34.85</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>34:51</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
@@ -2943,21 +2966,24 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
+      <c r="F64">
+        <v>42</v>
+      </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2133</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>35:32</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
@@ -2978,21 +3004,24 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
+      <c r="F65">
+        <v>25</v>
+      </c>
       <c r="G65">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2158</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>35.966666666666669</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>35:58</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
@@ -3013,21 +3042,24 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2178</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>36:17</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="2"/>
@@ -3048,21 +3080,24 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
+      <c r="F67">
+        <v>13</v>
+      </c>
       <c r="G67">
         <f t="shared" si="3"/>
-        <v>1902</v>
+        <v>2191</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:I90" si="5">F67/60</f>
-        <v>0</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I67">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>36.516666666666666</v>
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" ref="J67:J90" si="6">INT(I67)&amp;":"&amp;INT((I67-INT(I67))*60)</f>
-        <v>31:42</v>
+        <v>36:30</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67:K90" si="7">INT($A$2*B67)&amp;":"&amp;TEXT(INT(($A$2*B67-INT($A$2*B67))*60),0)</f>
@@ -3083,21 +3118,24 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
       <c r="G68">
         <f t="shared" ref="G68:G90" si="8">F68+G67</f>
-        <v>1902</v>
+        <v>2211</v>
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I68">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>36.85</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>36:51</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="7"/>
@@ -3118,21 +3156,24 @@
         <f t="shared" ref="E69:E90" si="9">IF(NOT(OR(C69="Capa",C69="Agenda",C69="Final",D69=D68)),E68+1,E68+0)</f>
         <v>37</v>
       </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
       <c r="G69">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2231</v>
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I69">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>37.18333333333333</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>37:10</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="7"/>
@@ -3153,21 +3194,24 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
       <c r="G70">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2251</v>
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>37.516666666666666</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>37:30</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="7"/>
@@ -3188,21 +3232,24 @@
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
       <c r="G71">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2271</v>
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>37.85</v>
       </c>
       <c r="J71" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>37:51</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="7"/>
@@ -3223,21 +3270,24 @@
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
       <c r="G72">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2291</v>
       </c>
       <c r="H72">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I72">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>38.18333333333333</v>
       </c>
       <c r="J72" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>38:10</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="7"/>
@@ -3258,21 +3308,24 @@
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
       <c r="G73">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2301</v>
       </c>
       <c r="H73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>38.35</v>
       </c>
       <c r="J73" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>38:21</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="7"/>
@@ -3293,21 +3346,24 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
       <c r="G74">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2313</v>
       </c>
       <c r="H74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="J74" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>38:32</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="7"/>
@@ -3328,21 +3384,24 @@
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
+      <c r="F75">
+        <v>23</v>
+      </c>
       <c r="G75">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2336</v>
       </c>
       <c r="H75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I75">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>38.93333333333333</v>
       </c>
       <c r="J75" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>38:55</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="7"/>
@@ -3363,21 +3422,24 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
       <c r="G76">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2356</v>
       </c>
       <c r="H76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>39.266666666666666</v>
       </c>
       <c r="J76" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>39:15</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="7"/>
@@ -3398,21 +3460,24 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
+      <c r="F77">
+        <v>25</v>
+      </c>
       <c r="G77">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2381</v>
       </c>
       <c r="H77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>39.68333333333333</v>
       </c>
       <c r="J77" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>39:40</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="7"/>
@@ -3433,21 +3498,24 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
       <c r="G78">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2401</v>
       </c>
       <c r="H78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>40.016666666666666</v>
       </c>
       <c r="J78" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>40:0</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="7"/>
@@ -3468,21 +3536,24 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
+      <c r="F79">
+        <v>27</v>
+      </c>
       <c r="G79">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2428</v>
       </c>
       <c r="H79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>40.466666666666669</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>40:28</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="7"/>
@@ -3503,21 +3574,24 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
+      <c r="F80">
+        <v>25</v>
+      </c>
       <c r="G80">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2453</v>
       </c>
       <c r="H80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>40.883333333333333</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>40:53</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="7"/>
@@ -3538,21 +3612,24 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
+      <c r="F81">
+        <v>36</v>
+      </c>
       <c r="G81">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2489</v>
       </c>
       <c r="H81">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>41.483333333333334</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>41:29</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="7"/>
@@ -3573,9 +3650,12 @@
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
       <c r="G82">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2489</v>
       </c>
       <c r="H82">
         <f t="shared" si="5"/>
@@ -3583,11 +3663,11 @@
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>41.483333333333334</v>
       </c>
       <c r="J82" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>41:29</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="7"/>
@@ -3608,21 +3688,24 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
+      <c r="F83">
+        <v>116</v>
+      </c>
       <c r="G83">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2605</v>
       </c>
       <c r="H83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>43.416666666666664</v>
       </c>
       <c r="J83" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>43:24</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="7"/>
@@ -3643,21 +3726,24 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
+      <c r="F84">
+        <v>45</v>
+      </c>
       <c r="G84">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2650</v>
       </c>
       <c r="H84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="J84" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>44:9</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="7"/>
@@ -3678,21 +3764,24 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
       <c r="G85">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2667</v>
       </c>
       <c r="H85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>44.45</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>44:27</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="7"/>
@@ -3713,21 +3802,24 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
       <c r="G86">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2678</v>
       </c>
       <c r="H86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="I86">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>44.633333333333333</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>44:38</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="7"/>
@@ -3748,21 +3840,24 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
       <c r="G87">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2686</v>
       </c>
       <c r="H87">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>44.766666666666666</v>
       </c>
       <c r="J87" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>44:45</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="7"/>
@@ -3783,21 +3878,24 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
       <c r="G88">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2696</v>
       </c>
       <c r="H88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>44.93333333333333</v>
       </c>
       <c r="J88" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>44:55</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="7"/>
@@ -3818,21 +3916,24 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
       <c r="G89">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2706</v>
       </c>
       <c r="H89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>45.1</v>
       </c>
       <c r="J89" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>45:6</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="7"/>
@@ -3853,21 +3954,24 @@
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
       <c r="G90">
         <f t="shared" si="8"/>
-        <v>1902</v>
+        <v>2716</v>
       </c>
       <c r="H90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I90">
         <f t="shared" si="5"/>
-        <v>31.7</v>
+        <v>45.266666666666666</v>
       </c>
       <c r="J90" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>31:42</v>
+        <v>45:15</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="7"/>

--- a/Apresentação/Lista slides e tempo.xlsx
+++ b/Apresentação/Lista slides e tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITA\Dissertacao\Apresentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A62C94-FC81-4C80-80C8-5F4A20E1BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2B94D-FAEE-4B7F-8AE6-FE71C8822501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Capa</t>
   </si>
@@ -124,9 +124,6 @@
     <t>#2 SDNN</t>
   </si>
   <si>
-    <t>Conclução #1</t>
-  </si>
-  <si>
     <t>Conclução #2</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>VR</t>
   </si>
   <si>
-    <t>Fase 1</t>
-  </si>
-  <si>
-    <t>Fase 2</t>
-  </si>
-  <si>
     <t>Fase 3a</t>
   </si>
   <si>
@@ -218,14 +209,52 @@
   </si>
   <si>
     <t>Fase 5b</t>
+  </si>
+  <si>
+    <t>Perfomance</t>
+  </si>
+  <si>
+    <t>Fisiologico</t>
+  </si>
+  <si>
+    <t>Subjetivo</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>Conclução #1a</t>
+  </si>
+  <si>
+    <t>Proposta</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Fase 1a</t>
+  </si>
+  <si>
+    <t>Fase 1b</t>
+  </si>
+  <si>
+    <t>Fase 2a</t>
+  </si>
+  <si>
+    <t>Fase 2b</t>
+  </si>
+  <si>
+    <t>Fase 2c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[mm]:ss"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,8 +289,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -269,10 +299,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,34 +595,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>50/COUNT(B2:B90)</f>
-        <v>0.5617977528089888</v>
+        <f>50/COUNT(B2:B104)</f>
+        <v>0.4854368932038835</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -626,10 +657,14 @@
       </c>
       <c r="K2" t="str">
         <f>INT($A$2*B2)&amp;":"&amp;TEXT(INT(($A$2*B2-INT($A$2*B2))*60),0)</f>
-        <v>0:33</v>
+        <v>0:29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>A2*60</f>
+        <v>29.126213592233011</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -651,7 +686,7 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I66" si="0">F3/60</f>
+        <f t="shared" ref="H3:I77" si="0">F3/60</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="I3">
@@ -659,12 +694,12 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
+        <f t="shared" ref="J3:J77" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
         <v>0:36</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
-        <v>1:7</v>
+        <f t="shared" ref="K3:K77" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
+        <v>0:58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -678,32 +713,31 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
+        <f t="shared" ref="E4:E67" si="3">IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
         <v>2</v>
       </c>
       <c r="F4">
-        <f>60+47</f>
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="3">F4+G3</f>
-        <v>143</v>
+        <f t="shared" ref="G4:G70" si="4">F4+G3</f>
+        <v>81</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.7833333333333334</v>
+        <f t="shared" ref="H4:I7" si="5">F4/60</f>
+        <v>0.75</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>2.3833333333333333</v>
+        <f t="shared" si="5"/>
+        <v>1.35</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2:23</v>
+        <f t="shared" ref="J4:J7" si="6">INT(I4)&amp;":"&amp;INT((I4-INT(I4))*60)</f>
+        <v>1:21</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>1:41</v>
+        <f t="shared" ref="K4:K7" si="7">INT($A$2*B4)&amp;":"&amp;TEXT(INT(($A$2*B4-INT($A$2*B4))*60),0)</f>
+        <v>1:27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -711,37 +745,37 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <f t="shared" ref="E5:E68" si="4">IF(NOT(OR(C5="Capa",C5="Agenda",C5="Final",D5=D4)),E4+1,E4+0)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>153</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="5"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I5">
-        <f>G5/60</f>
-        <v>2.5499999999999998</v>
+        <f t="shared" si="5"/>
+        <v>1.4333333333333333</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2:33</v>
+        <f t="shared" si="6"/>
+        <v>1:26</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>2:14</v>
+        <f t="shared" si="7"/>
+        <v>1:56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -749,37 +783,37 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>163</v>
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="H6" si="8">F6/60</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I6">
-        <f>G6/60</f>
-        <v>2.7166666666666668</v>
+        <f t="shared" ref="I6" si="9">G6/60</f>
+        <v>1.5166666666666666</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2:43</v>
+        <f t="shared" ref="J6" si="10">INT(I6)&amp;":"&amp;INT((I6-INT(I6))*60)</f>
+        <v>1:31</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>2:48</v>
+        <f t="shared" ref="K6" si="11">INT($A$2*B6)&amp;":"&amp;TEXT(INT(($A$2*B6-INT($A$2*B6))*60),0)</f>
+        <v>2:25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -787,37 +821,37 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>199</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>3.3166666666666669</v>
+        <f t="shared" si="5"/>
+        <v>1.75</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>3:19</v>
+        <f t="shared" si="6"/>
+        <v>1:45</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>3:22</v>
+        <f t="shared" si="7"/>
+        <v>2:54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -825,38 +859,37 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="F8">
-        <f>2*60+53</f>
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>372</v>
+        <f t="shared" si="4"/>
+        <v>112</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.8833333333333333</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6:12</v>
+        <v>1:52</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
-        <v>3:55</v>
+        <v>3:23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -864,37 +897,37 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>440</v>
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.1333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>7.333333333333333</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>7:20</v>
+        <v>2:1</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>4:29</v>
+        <v>3:53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -902,37 +935,37 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>470</v>
+        <f t="shared" si="4"/>
+        <v>132</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>7.833333333333333</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>7:50</v>
+        <v>2:12</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
-        <v>5:3</v>
+        <v>4:22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -940,37 +973,37 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>495</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.6</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>2.8</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>8:15</v>
+        <v>2:48</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>5:37</v>
+        <v>4:51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,37 +1011,37 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>513</v>
+        <f t="shared" si="4"/>
+        <v>235</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>1.1166666666666667</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>8.5500000000000007</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>8:33</v>
+        <v>3:55</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
-        <v>6:10</v>
+        <v>5:20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1016,37 +1049,37 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>536</v>
+        <f t="shared" si="4"/>
+        <v>273</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.38333333333333336</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>8.9333333333333336</v>
+        <v>4.55</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>8:56</v>
+        <v>4:33</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>6:44</v>
+        <v>5:49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,37 +1087,37 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>566</v>
+        <f t="shared" si="4"/>
+        <v>293</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>9.4333333333333336</v>
+        <v>4.8833333333333337</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>9:26</v>
+        <v>4:53</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>7:18</v>
+        <v>6:18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1092,37 +1125,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>589</v>
+        <f t="shared" si="4"/>
+        <v>303</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.38333333333333336</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>9.8166666666666664</v>
+        <v>5.05</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>9:49</v>
+        <v>5:2</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>7:51</v>
+        <v>6:47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1130,37 +1163,37 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>616</v>
+        <f t="shared" si="4"/>
+        <v>353</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>10.266666666666667</v>
+        <v>5.8833333333333337</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10:16</v>
+        <v>5:53</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>8:25</v>
+        <v>7:16</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1168,37 +1201,37 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>616</v>
+        <f t="shared" si="4"/>
+        <v>421</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>10.266666666666667</v>
+        <v>7.0166666666666666</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>10:16</v>
+        <v>7:0</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v>8:59</v>
+        <v>7:46</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1206,37 +1239,37 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>691</v>
+        <f t="shared" si="4"/>
+        <v>451</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>11.516666666666667</v>
+        <v>7.5166666666666666</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>11:31</v>
+        <v>7:31</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
-        <v>9:33</v>
+        <v>8:15</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1244,37 +1277,37 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>721</v>
+        <f t="shared" si="4"/>
+        <v>476</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>12.016666666666667</v>
+        <v>7.9333333333333336</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>12:1</v>
+        <v>7:56</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
-        <v>10:6</v>
+        <v>8:44</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -1282,37 +1315,37 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>733</v>
+        <f t="shared" si="4"/>
+        <v>494</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>12.216666666666667</v>
+        <v>8.2333333333333325</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>12:13</v>
+        <v>8:14</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
-        <v>10:40</v>
+        <v>9:13</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1320,37 +1353,37 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>741</v>
+        <f t="shared" si="4"/>
+        <v>517</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>12.35</v>
+        <v>8.6166666666666671</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>12:21</v>
+        <v>8:37</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
-        <v>11:14</v>
+        <v>9:42</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -1358,37 +1391,37 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
-        <v>767</v>
+        <f t="shared" si="4"/>
+        <v>547</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.5</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>12.783333333333333</v>
+        <v>9.1166666666666671</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>12:47</v>
+        <v>9:7</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
-        <v>11:47</v>
+        <v>10:11</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1396,37 +1429,37 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
-        <v>784</v>
+        <f t="shared" si="4"/>
+        <v>570</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>13.066666666666666</v>
+        <v>9.5</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>13:3</v>
+        <v>9:30</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
-        <v>12:21</v>
+        <v>10:40</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -1434,37 +1467,37 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
-        <v>813</v>
+        <f t="shared" si="4"/>
+        <v>597</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.45</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>13.55</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>13:33</v>
+        <v>9:57</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
-        <v>12:55</v>
+        <v>11:9</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -1472,37 +1505,37 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
-        <v>831</v>
+        <f t="shared" si="4"/>
+        <v>597</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>13.85</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>13:51</v>
+        <v>9:57</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
-        <v>13:28</v>
+        <v>11:39</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -1510,37 +1543,37 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>855</v>
+        <f t="shared" si="4"/>
+        <v>672</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1.25</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>14.25</v>
+        <v>11.2</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>14:15</v>
+        <v>11:12</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
-        <v>14:2</v>
+        <v>12:8</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -1548,37 +1581,37 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
-        <v>855</v>
+        <f t="shared" si="4"/>
+        <v>702</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>14.25</v>
+        <v>11.7</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>14:15</v>
+        <v>11:42</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="2"/>
-        <v>14:36</v>
+        <v>12:37</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1586,37 +1619,37 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D28">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
       <c r="F28">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
-        <v>913</v>
+        <f t="shared" si="4"/>
+        <v>714</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>15.216666666666667</v>
+        <v>11.9</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15:13</v>
+        <v>11:54</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="2"/>
-        <v>15:10</v>
+        <v>13:6</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -1624,76 +1657,75 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
-        <v>1043</v>
+        <f t="shared" si="4"/>
+        <v>722</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.1666666666666665</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>17.383333333333333</v>
+        <v>12.033333333333333</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>17:23</v>
+        <v>12:1</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
-        <v>15:43</v>
+        <v>13:35</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
+      <c r="C30" t="s">
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="F30">
-        <f>60+26</f>
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
-        <v>1129</v>
+        <f t="shared" si="4"/>
+        <v>748</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.4333333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>18.816666666666666</v>
+        <v>12.466666666666667</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>18:49</v>
+        <v>12:28</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="2"/>
-        <v>16:17</v>
+        <v>14:4</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1701,37 +1733,37 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
-        <v>1178</v>
+        <f t="shared" si="4"/>
+        <v>765</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>0.81666666666666665</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>19.633333333333333</v>
+        <v>12.75</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>19:38</v>
+        <v>12:45</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="2"/>
-        <v>16:51</v>
+        <v>14:33</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1739,38 +1771,37 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="F32">
-        <f>60+22</f>
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
-        <v>1260</v>
+        <f t="shared" si="4"/>
+        <v>794</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13.233333333333333</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>21:0</v>
+        <v>13:14</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="2"/>
-        <v>17:24</v>
+        <v>15:2</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1778,38 +1809,37 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="F33">
-        <f>60+15</f>
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
-        <v>1335</v>
+        <f t="shared" si="4"/>
+        <v>812</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>22.25</v>
+        <v>13.533333333333333</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>22:15</v>
+        <v>13:32</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="2"/>
-        <v>17:58</v>
+        <v>15:32</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1817,37 +1847,37 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
-        <v>1386</v>
+        <f t="shared" si="4"/>
+        <v>836</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>23.1</v>
+        <v>13.933333333333334</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>23:6</v>
+        <v>13:56</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="2"/>
-        <v>18:32</v>
+        <v>16:1</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1855,37 +1885,37 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
-        <v>1418</v>
+        <f t="shared" si="4"/>
+        <v>836</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>23.633333333333333</v>
+        <v>13.933333333333334</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>23:38</v>
+        <v>13:56</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
-        <v>19:6</v>
+        <v>16:30</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1893,37 +1923,37 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
-        <v>1448</v>
+        <f t="shared" si="4"/>
+        <v>894</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>24.133333333333333</v>
+        <v>14.9</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>24:7</v>
+        <v>14:54</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
-        <v>19:39</v>
+        <v>16:59</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1931,37 +1961,37 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="F37">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
-        <v>1508</v>
+        <f t="shared" si="4"/>
+        <v>908</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="H37:I37" si="12">F37/60</f>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>25.133333333333333</v>
+        <f t="shared" si="12"/>
+        <v>15.133333333333333</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>25:7</v>
+        <f t="shared" ref="J37" si="13">INT(I37)&amp;":"&amp;INT((I37-INT(I37))*60)</f>
+        <v>15:7</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="2"/>
-        <v>20:13</v>
+        <f t="shared" ref="K37" si="14">INT($A$2*B37)&amp;":"&amp;TEXT(INT(($A$2*B37-INT($A$2*B37))*60),0)</f>
+        <v>17:28</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -1969,37 +1999,37 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
-        <v>1508</v>
+        <f t="shared" si="4"/>
+        <v>942</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>25.133333333333333</v>
+        <v>15.7</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>25:7</v>
+        <v>15:42</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
-        <v>20:47</v>
+        <v>17:57</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -2007,37 +2037,37 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
-        <v>1532</v>
+        <f t="shared" si="4"/>
+        <v>969</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" ref="H39" si="15">F39/60</f>
+        <v>0.45</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>25.533333333333335</v>
+        <f t="shared" ref="I39" si="16">G39/60</f>
+        <v>16.149999999999999</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>25:32</v>
+        <v>16:8</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
-        <v>21:20</v>
+        <v>18:26</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2045,37 +2075,37 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="F40">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
-        <v>1584</v>
+        <f t="shared" si="4"/>
+        <v>987</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" ref="H40:I40" si="17">F40/60</f>
+        <v>0.3</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>26.4</v>
+        <f t="shared" si="17"/>
+        <v>16.45</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>26:23</v>
+        <f t="shared" ref="J40" si="18">INT(I40)&amp;":"&amp;INT((I40-INT(I40))*60)</f>
+        <v>16:27</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="2"/>
-        <v>21:54</v>
+        <f t="shared" ref="K40" si="19">INT($A$2*B40)&amp;":"&amp;TEXT(INT(($A$2*B40-INT($A$2*B40))*60),0)</f>
+        <v>18:55</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -2083,37 +2113,37 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="F41">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
-        <v>1619</v>
+        <f t="shared" si="4"/>
+        <v>1015</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>26.983333333333334</v>
+        <v>16.916666666666668</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>26:59</v>
+        <v>16:55</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>22:28</v>
+        <v>19:25</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2121,37 +2151,37 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
-        <v>1635</v>
+        <f t="shared" si="4"/>
+        <v>1064</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>27.25</v>
+        <v>17.733333333333334</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>27:15</v>
+        <v>17:44</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
-        <v>23:2</v>
+        <v>19:54</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -2159,37 +2189,38 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <f>60+22</f>
+        <v>82</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
-        <v>1667</v>
+        <f t="shared" si="4"/>
+        <v>1146</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>27.783333333333335</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>27:47</v>
+        <v>19:6</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
-        <v>23:35</v>
+        <v>20:23</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2197,37 +2228,38 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <f>60+15</f>
+        <v>75</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
-        <v>1681</v>
+        <f t="shared" si="4"/>
+        <v>1221</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>0.23333333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>28.016666666666666</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>28:0</v>
+        <v>20:21</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
-        <v>24:9</v>
+        <v>20:52</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -2235,37 +2267,37 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
-        <v>1693</v>
+        <f t="shared" si="4"/>
+        <v>1272</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>28.216666666666665</v>
+        <v>21.2</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>28:12</v>
+        <v>21:12</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
-        <v>24:43</v>
+        <v>21:21</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -2273,37 +2305,37 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="F46">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
-        <v>1721</v>
+        <f t="shared" si="4"/>
+        <v>1304</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>28.683333333333334</v>
+        <v>21.733333333333334</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>28:41</v>
+        <v>21:44</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
-        <v>25:16</v>
+        <v>21:50</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -2311,37 +2343,37 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
-        <v>1734</v>
+        <f t="shared" si="4"/>
+        <v>1334</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>28.9</v>
+        <v>22.233333333333334</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>28:53</v>
+        <v>22:14</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
-        <v>25:50</v>
+        <v>22:19</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -2349,37 +2381,37 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="F48">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
-        <v>1764</v>
+        <f t="shared" si="4"/>
+        <v>1394</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>29.4</v>
+        <v>23.233333333333334</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>29:23</v>
+        <v>23:14</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
-        <v>26:24</v>
+        <v>22:48</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2387,37 +2419,37 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="F49">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
-        <v>1796</v>
+        <f t="shared" si="4"/>
+        <v>1394</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>29.933333333333334</v>
+        <v>23.233333333333334</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>29:56</v>
+        <v>23:14</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
-        <v>26:57</v>
+        <v>23:18</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2425,37 +2457,37 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
-        <v>1827</v>
+        <f t="shared" si="4"/>
+        <v>1418</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>30.45</v>
+        <v>23.633333333333333</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>30:27</v>
+        <v>23:38</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
-        <v>27:31</v>
+        <v>23:47</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2463,37 +2495,37 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
-        <v>1840</v>
+        <f t="shared" si="4"/>
+        <v>1470</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>30.666666666666668</v>
+        <v>24.5</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>30:40</v>
+        <v>24:30</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v>28:5</v>
+        <v>24:16</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2501,37 +2533,37 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
-        <v>1850</v>
+        <f t="shared" si="4"/>
+        <v>1505</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>30.833333333333332</v>
+        <v>25.083333333333332</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>30:49</v>
+        <v>25:4</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
-        <v>28:39</v>
+        <v>24:45</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2539,37 +2571,37 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
-        <v>1868</v>
+        <f t="shared" si="4"/>
+        <v>1521</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>31.133333333333333</v>
+        <v>25.35</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:7</v>
+        <v>25:21</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
-        <v>29:12</v>
+        <v>25:14</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2577,37 +2609,37 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
-        <v>1876</v>
+        <f t="shared" si="4"/>
+        <v>1553</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>31.266666666666666</v>
+        <v>25.883333333333333</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:15</v>
+        <v>25:53</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
-        <v>29:46</v>
+        <v>25:43</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2615,37 +2647,37 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="F55">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
-        <v>1902</v>
+        <f t="shared" si="4"/>
+        <v>1567</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>31.7</v>
+        <v>26.116666666666667</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>31:42</v>
+        <v>26:7</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>30:20</v>
+        <v>26:12</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2653,37 +2685,37 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="F56">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
-        <v>1939</v>
+        <f t="shared" si="4"/>
+        <v>1579</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>32.31666666666667</v>
+        <v>26.316666666666666</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>32:19</v>
+        <v>26:19</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
-        <v>30:53</v>
+        <v>26:41</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -2691,37 +2723,37 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="F57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
-        <v>1968</v>
+        <f t="shared" si="4"/>
+        <v>1607</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>32.799999999999997</v>
+        <v>26.783333333333335</v>
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>32:47</v>
+        <v>26:47</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
-        <v>31:27</v>
+        <v>27:11</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -2729,37 +2761,37 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
-        <v>2024</v>
+        <f t="shared" si="4"/>
+        <v>1620</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>33.733333333333334</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>33:44</v>
+        <v>27:0</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
-        <v>32:1</v>
+        <v>27:40</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -2767,37 +2799,37 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
-        <v>2032</v>
+        <f t="shared" si="4"/>
+        <v>1650</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>33.866666666666667</v>
+        <v>27.5</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>33:52</v>
+        <v>27:30</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
-        <v>32:35</v>
+        <v>28:9</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -2805,37 +2837,37 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
-        <v>2039</v>
+        <f t="shared" si="4"/>
+        <v>1682</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>0.11666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>33.983333333333334</v>
+        <v>28.033333333333335</v>
       </c>
       <c r="J60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>33:59</v>
+        <v>28:2</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
-        <v>33:8</v>
+        <v>28:38</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -2843,37 +2875,37 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
-        <v>2052</v>
+        <f t="shared" si="4"/>
+        <v>1713</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <v>28.55</v>
       </c>
       <c r="J61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>34:12</v>
+        <v>28:33</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>33:42</v>
+        <v>29:7</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -2881,37 +2913,37 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E62">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="F62">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
-        <v>2077</v>
+        <f t="shared" si="4"/>
+        <v>1726</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>34.616666666666667</v>
+        <v>28.766666666666666</v>
       </c>
       <c r="J62" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>34:37</v>
+        <v>28:45</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
-        <v>34:16</v>
+        <v>29:36</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -2919,37 +2951,37 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
-        <v>2091</v>
+        <f t="shared" si="4"/>
+        <v>1736</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0.23333333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>34.85</v>
+        <v>28.933333333333334</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>34:51</v>
+        <v>28:56</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
-        <v>34:49</v>
+        <v>30:5</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -2957,37 +2989,37 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
-        <v>2133</v>
+        <f t="shared" si="4"/>
+        <v>1754</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>35.549999999999997</v>
+        <v>29.233333333333334</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>35:32</v>
+        <v>29:14</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
-        <v>35:23</v>
+        <v>30:34</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -2995,37 +3027,37 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="F65">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
-        <v>2158</v>
+        <f t="shared" si="4"/>
+        <v>1762</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>35.966666666666669</v>
+        <v>29.366666666666667</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>35:58</v>
+        <v>29:22</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
-        <v>35:57</v>
+        <v>31:4</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3033,37 +3065,37 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E66">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
-        <v>2178</v>
+        <f t="shared" si="4"/>
+        <v>1788</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>36.299999999999997</v>
+        <v>29.8</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>36:17</v>
+        <v>29:48</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="2"/>
-        <v>36:31</v>
+        <v>31:33</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3071,37 +3103,37 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E67">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="F67">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
-        <v>2191</v>
+        <f t="shared" si="4"/>
+        <v>1825</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:I90" si="5">F67/60</f>
-        <v>0.21666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.6166666666666667</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
-        <v>36.516666666666666</v>
+        <f t="shared" si="0"/>
+        <v>30.416666666666668</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J90" si="6">INT(I67)&amp;":"&amp;INT((I67-INT(I67))*60)</f>
-        <v>36:30</v>
+        <f t="shared" si="1"/>
+        <v>30:25</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K90" si="7">INT($A$2*B67)&amp;":"&amp;TEXT(INT(($A$2*B67-INT($A$2*B67))*60),0)</f>
-        <v>37:4</v>
+        <f t="shared" si="2"/>
+        <v>32:2</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -3109,37 +3141,37 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E68">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" ref="E68:E104" si="20">IF(NOT(OR(C68="Agenda",C68="Final",D68=D67)),E67+1,E67+0)</f>
+        <v>32</v>
       </c>
       <c r="F68">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G90" si="8">F68+G67</f>
-        <v>2211</v>
+        <f t="shared" si="4"/>
+        <v>1854</v>
       </c>
       <c r="H68">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
-        <v>36.85</v>
+        <f t="shared" si="0"/>
+        <v>30.9</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>36:51</v>
+        <f t="shared" si="1"/>
+        <v>30:53</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="7"/>
-        <v>37:38</v>
+        <f t="shared" si="2"/>
+        <v>32:31</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -3147,37 +3179,37 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E90" si="9">IF(NOT(OR(C69="Capa",C69="Agenda",C69="Final",D69=D68)),E68+1,E68+0)</f>
-        <v>37</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="F69">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
-        <v>2231</v>
+        <f t="shared" si="4"/>
+        <v>1910</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
-        <v>37.18333333333333</v>
+        <f t="shared" si="0"/>
+        <v>31.833333333333332</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>37:10</v>
+        <f t="shared" si="1"/>
+        <v>31:49</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="7"/>
-        <v>38:12</v>
+        <f t="shared" si="2"/>
+        <v>33:0</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -3185,37 +3217,37 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
-        <v>37</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
-        <v>2251</v>
+        <f t="shared" si="4"/>
+        <v>1918</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
-        <v>37.516666666666666</v>
+        <f t="shared" si="0"/>
+        <v>31.966666666666665</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>37:30</v>
+        <f t="shared" si="1"/>
+        <v>31:57</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="7"/>
-        <v>38:45</v>
+        <f t="shared" si="2"/>
+        <v>33:29</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
@@ -3223,37 +3255,37 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
-        <v>37</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
-        <v>2271</v>
+        <f t="shared" ref="G71:G104" si="21">F71+G70</f>
+        <v>1925</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
-        <v>37.85</v>
+        <f t="shared" ref="I71:I104" si="22">G71/60</f>
+        <v>32.083333333333336</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>37:51</v>
+        <f t="shared" si="1"/>
+        <v>32:5</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="7"/>
-        <v>39:19</v>
+        <f t="shared" si="2"/>
+        <v>33:58</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3261,37 +3293,37 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="F72">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
-        <v>2291</v>
+        <f t="shared" si="21"/>
+        <v>1938</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
-        <v>38.18333333333333</v>
+        <f t="shared" si="22"/>
+        <v>32.299999999999997</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>38:10</v>
+        <f t="shared" si="1"/>
+        <v>32:17</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="7"/>
-        <v>39:53</v>
+        <f t="shared" si="2"/>
+        <v>34:27</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -3299,37 +3331,37 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
-        <v>38</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
-        <v>2301</v>
+        <f t="shared" si="21"/>
+        <v>1963</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
-        <v>38.35</v>
+        <f t="shared" si="22"/>
+        <v>32.716666666666669</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>38:21</v>
+        <f t="shared" si="1"/>
+        <v>32:43</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="7"/>
-        <v>40:26</v>
+        <f t="shared" si="2"/>
+        <v>34:57</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -3337,37 +3369,37 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <f t="shared" si="20"/>
+        <v>34</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
-        <v>2313</v>
+        <f t="shared" si="21"/>
+        <v>1977</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
-        <v>38.549999999999997</v>
+        <f t="shared" si="22"/>
+        <v>32.950000000000003</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>38:32</v>
+        <f t="shared" si="1"/>
+        <v>32:57</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="7"/>
-        <v>41:0</v>
+        <f t="shared" si="2"/>
+        <v>35:26</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
@@ -3375,37 +3407,37 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D75">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
-        <v>39</v>
+        <f t="shared" si="20"/>
+        <v>34</v>
       </c>
       <c r="F75">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
-        <v>2336</v>
+        <f t="shared" si="21"/>
+        <v>2019</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
-        <v>0.38333333333333336</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
-        <v>38.93333333333333</v>
+        <f t="shared" si="22"/>
+        <v>33.65</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>38:55</v>
+        <f t="shared" si="1"/>
+        <v>33:38</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="7"/>
-        <v>41:34</v>
+        <f t="shared" si="2"/>
+        <v>35:55</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -3413,37 +3445,37 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
-        <v>40</v>
+        <f t="shared" si="20"/>
+        <v>35</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
-        <v>2356</v>
+        <f t="shared" si="21"/>
+        <v>2044</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
-        <v>39.266666666666666</v>
+        <f t="shared" si="22"/>
+        <v>34.06666666666667</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>39:15</v>
+        <f t="shared" si="1"/>
+        <v>34:4</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="7"/>
-        <v>42:8</v>
+        <f t="shared" si="2"/>
+        <v>36:24</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -3451,37 +3483,37 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
-        <v>40</v>
+        <f t="shared" si="20"/>
+        <v>35</v>
       </c>
       <c r="F77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G77">
-        <f t="shared" si="8"/>
-        <v>2381</v>
+        <f t="shared" si="21"/>
+        <v>2064</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
-        <v>39.68333333333333</v>
+        <f t="shared" si="22"/>
+        <v>34.4</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>39:40</v>
+        <f t="shared" si="1"/>
+        <v>34:23</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="7"/>
-        <v>42:41</v>
+        <f t="shared" si="2"/>
+        <v>36:53</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
@@ -3489,37 +3521,37 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>36</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
-        <v>2401</v>
+        <f t="shared" si="21"/>
+        <v>2077</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="H78:H104" si="23">F78/60</f>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
-        <v>40.016666666666666</v>
+        <f t="shared" si="22"/>
+        <v>34.616666666666667</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>40:0</v>
+        <f t="shared" ref="J78:J104" si="24">INT(I78)&amp;":"&amp;INT((I78-INT(I78))*60)</f>
+        <v>34:37</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="7"/>
-        <v>43:15</v>
+        <f t="shared" ref="K78:K104" si="25">INT($A$2*B78)&amp;":"&amp;TEXT(INT(($A$2*B78-INT($A$2*B78))*60),0)</f>
+        <v>37:22</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
@@ -3527,37 +3559,37 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>36</v>
       </c>
       <c r="F79">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G79">
-        <f t="shared" si="8"/>
-        <v>2428</v>
+        <f t="shared" si="21"/>
+        <v>2097</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
-        <v>0.45</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
-        <v>40.466666666666669</v>
+        <f t="shared" si="22"/>
+        <v>34.950000000000003</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>40:28</v>
+        <f t="shared" si="24"/>
+        <v>34:57</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="7"/>
-        <v>43:49</v>
+        <f t="shared" si="25"/>
+        <v>37:51</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -3565,37 +3597,37 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>37</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G80">
-        <f t="shared" si="8"/>
-        <v>2453</v>
+        <f t="shared" si="21"/>
+        <v>2117</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
-        <v>40.883333333333333</v>
+        <f t="shared" si="22"/>
+        <v>35.283333333333331</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>40:53</v>
+        <f t="shared" si="24"/>
+        <v>35:16</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="7"/>
-        <v>44:22</v>
+        <f t="shared" si="25"/>
+        <v>38:20</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
@@ -3603,37 +3635,37 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D81">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>37</v>
       </c>
       <c r="F81">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G81">
-        <f t="shared" si="8"/>
-        <v>2489</v>
+        <f t="shared" si="21"/>
+        <v>2137</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
-        <v>41.483333333333334</v>
+        <f t="shared" si="22"/>
+        <v>35.616666666666667</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>41:29</v>
+        <f t="shared" si="24"/>
+        <v>35:37</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="7"/>
-        <v>44:56</v>
+        <f t="shared" si="25"/>
+        <v>38:50</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
@@ -3641,37 +3673,37 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D82">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>37</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <f t="shared" si="8"/>
-        <v>2489</v>
+        <f t="shared" si="21"/>
+        <v>2157</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
-        <v>41.483333333333334</v>
+        <f t="shared" si="22"/>
+        <v>35.950000000000003</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>41:29</v>
+        <f t="shared" si="24"/>
+        <v>35:57</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="7"/>
-        <v>45:30</v>
+        <f t="shared" si="25"/>
+        <v>39:19</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -3679,37 +3711,37 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
-        <v>42</v>
+        <f t="shared" si="20"/>
+        <v>38</v>
       </c>
       <c r="F83">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="G83">
-        <f t="shared" si="8"/>
-        <v>2605</v>
+        <f t="shared" si="21"/>
+        <v>2177</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
-        <v>1.9333333333333333</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
-        <v>43.416666666666664</v>
+        <f t="shared" si="22"/>
+        <v>36.283333333333331</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>43:24</v>
+        <f t="shared" si="24"/>
+        <v>36:16</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="7"/>
-        <v>46:4</v>
+        <f t="shared" si="25"/>
+        <v>39:48</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
@@ -3717,37 +3749,37 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
-        <v>42</v>
+        <f t="shared" si="20"/>
+        <v>38</v>
       </c>
       <c r="F84">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <f t="shared" si="8"/>
-        <v>2650</v>
+        <f t="shared" si="21"/>
+        <v>2187</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
-        <v>44.166666666666664</v>
+        <f t="shared" si="22"/>
+        <v>36.450000000000003</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>44:9</v>
+        <f t="shared" si="24"/>
+        <v>36:27</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="7"/>
-        <v>46:37</v>
+        <f t="shared" si="25"/>
+        <v>40:17</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
@@ -3755,37 +3787,37 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D85">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
-        <v>43</v>
+        <f t="shared" si="20"/>
+        <v>39</v>
       </c>
       <c r="F85">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G85">
-        <f t="shared" si="8"/>
-        <v>2667</v>
+        <f t="shared" si="21"/>
+        <v>2199</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
-        <v>0.28333333333333333</v>
+        <f t="shared" si="23"/>
+        <v>0.2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
-        <v>44.45</v>
+        <f t="shared" si="22"/>
+        <v>36.65</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>44:27</v>
+        <f t="shared" si="24"/>
+        <v>36:38</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="7"/>
-        <v>47:11</v>
+        <f t="shared" si="25"/>
+        <v>40:46</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -3793,37 +3825,37 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
-        <v>43</v>
+        <f t="shared" si="20"/>
+        <v>39</v>
       </c>
       <c r="F86">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G86">
-        <f t="shared" si="8"/>
-        <v>2678</v>
+        <f t="shared" si="21"/>
+        <v>2222</v>
       </c>
       <c r="H86">
-        <f t="shared" si="5"/>
-        <v>0.18333333333333332</v>
+        <f t="shared" si="23"/>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
-        <v>44.633333333333333</v>
+        <f t="shared" si="22"/>
+        <v>37.033333333333331</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>44:38</v>
+        <f t="shared" si="24"/>
+        <v>37:1</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="7"/>
-        <v>47:45</v>
+        <f t="shared" si="25"/>
+        <v>41:15</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
@@ -3831,37 +3863,37 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D87">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
-        <v>43</v>
+        <f t="shared" si="20"/>
+        <v>40</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G87">
-        <f t="shared" si="8"/>
-        <v>2686</v>
+        <f t="shared" si="21"/>
+        <v>2242</v>
       </c>
       <c r="H87">
-        <f t="shared" si="5"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
-        <v>44.766666666666666</v>
+        <f t="shared" si="22"/>
+        <v>37.366666666666667</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>44:45</v>
+        <f t="shared" si="24"/>
+        <v>37:22</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="7"/>
-        <v>48:18</v>
+        <f t="shared" si="25"/>
+        <v>41:44</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
@@ -3869,37 +3901,37 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D88">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
-        <v>43</v>
+        <f t="shared" si="20"/>
+        <v>40</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G88">
-        <f t="shared" si="8"/>
-        <v>2696</v>
+        <f t="shared" si="21"/>
+        <v>2267</v>
       </c>
       <c r="H88">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="23"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
-        <v>44.93333333333333</v>
+        <f t="shared" si="22"/>
+        <v>37.783333333333331</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>44:55</v>
+        <f t="shared" si="24"/>
+        <v>37:46</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="7"/>
-        <v>48:52</v>
+        <f t="shared" si="25"/>
+        <v>42:13</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
@@ -3907,37 +3939,37 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
-        <v>43</v>
+        <f t="shared" si="20"/>
+        <v>41</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <f t="shared" si="8"/>
-        <v>2706</v>
+        <f t="shared" si="21"/>
+        <v>2287</v>
       </c>
       <c r="H89">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="23"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
-        <v>45.1</v>
+        <f t="shared" si="22"/>
+        <v>38.116666666666667</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>45:6</v>
+        <f t="shared" si="24"/>
+        <v>38:7</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="7"/>
-        <v>49:26</v>
+        <f t="shared" si="25"/>
+        <v>42:43</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
@@ -3945,36 +3977,568 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90">
+        <v>48</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="F90">
+        <v>27</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="21"/>
+        <v>2314</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="23"/>
+        <v>0.45</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="22"/>
+        <v>38.56666666666667</v>
+      </c>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>38:34</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="25"/>
+        <v>43:12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>48</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="F91">
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="21"/>
+        <v>2339</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="23"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="22"/>
+        <v>38.983333333333334</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>38:59</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="25"/>
+        <v>43:41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92">
+        <v>48</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="F92">
+        <v>36</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="21"/>
+        <v>2375</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="23"/>
+        <v>0.6</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="22"/>
+        <v>39.583333333333336</v>
+      </c>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>39:35</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="25"/>
+        <v>44:10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>49</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="21"/>
+        <v>2375</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="22"/>
+        <v>39.583333333333336</v>
+      </c>
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>39:35</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="25"/>
+        <v>44:39</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="21"/>
+        <v>2388</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="23"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="22"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>39:47</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="25"/>
+        <v>45:8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="F95">
+        <v>53</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="21"/>
+        <v>2441</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="23"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="22"/>
+        <v>40.68333333333333</v>
+      </c>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>40:40</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="25"/>
+        <v>45:37</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="21"/>
+        <v>2456</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="23"/>
+        <v>0.25</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="22"/>
+        <v>40.93333333333333</v>
+      </c>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>40:55</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="25"/>
+        <v>46:6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="21"/>
+        <v>2464</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="23"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="22"/>
+        <v>41.06666666666667</v>
+      </c>
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>41:4</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="25"/>
+        <v>46:36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="F98">
+        <v>45</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="21"/>
+        <v>2509</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="23"/>
+        <v>0.75</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="22"/>
+        <v>41.81666666666667</v>
+      </c>
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>41:49</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="25"/>
+        <v>47:5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99">
+        <v>51</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="21"/>
+        <v>2526</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="23"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="22"/>
+        <v>42.1</v>
+      </c>
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>42:6</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="25"/>
+        <v>47:34</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100">
+        <v>51</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="21"/>
+        <v>2537</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="23"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="22"/>
+        <v>42.283333333333331</v>
+      </c>
+      <c r="J100" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>42:16</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="25"/>
+        <v>48:3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101">
+        <v>51</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="21"/>
+        <v>2545</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="23"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="22"/>
+        <v>42.416666666666664</v>
+      </c>
+      <c r="J101" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>42:24</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="25"/>
+        <v>48:32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102">
+        <v>51</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="21"/>
+        <v>2555</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="22"/>
+        <v>42.583333333333336</v>
+      </c>
+      <c r="J102" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>42:35</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="25"/>
+        <v>49:1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103">
+        <v>51</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="21"/>
+        <v>2565</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="22"/>
+        <v>42.75</v>
+      </c>
+      <c r="J103" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>42:45</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="25"/>
+        <v>49:30</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
         <v>20</v>
       </c>
-      <c r="D90">
+      <c r="D104">
         <v>52</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="9"/>
+      <c r="E104">
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
-      <c r="F90">
+      <c r="F104">
         <v>10</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="8"/>
-        <v>2716</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="5"/>
+      <c r="G104">
+        <f t="shared" si="21"/>
+        <v>2575</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="23"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="5"/>
-        <v>45.266666666666666</v>
-      </c>
-      <c r="J90" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>45:15</v>
-      </c>
-      <c r="K90" t="str">
-        <f t="shared" si="7"/>
+      <c r="I104">
+        <f t="shared" si="22"/>
+        <v>42.916666666666664</v>
+      </c>
+      <c r="J104" s="2" t="str">
+        <f t="shared" si="24"/>
+        <v>42:54</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="25"/>
         <v>50:0</v>
       </c>
     </row>

--- a/Apresentação/Lista slides e tempo.xlsx
+++ b/Apresentação/Lista slides e tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA2B94D-FAEE-4B7F-8AE6-FE71C8822501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F14CE7-50AF-4A17-9277-723DBD0BB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Capa</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Objetivos</t>
   </si>
   <si>
-    <t>Aborgagem</t>
-  </si>
-  <si>
     <t>Materiais e Metodos</t>
   </si>
   <si>
@@ -154,39 +151,6 @@
     <t>Acumulado Minutos</t>
   </si>
   <si>
-    <t>Step 1 a</t>
-  </si>
-  <si>
-    <t>Step 1 b</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>RV</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
     <t>VR</t>
   </si>
   <si>
@@ -211,18 +175,6 @@
     <t>Fase 5b</t>
   </si>
   <si>
-    <t>Perfomance</t>
-  </si>
-  <si>
-    <t>Fisiologico</t>
-  </si>
-  <si>
-    <t>Subjetivo</t>
-  </si>
-  <si>
-    <t>NASA</t>
-  </si>
-  <si>
     <t>Conclução #1a</t>
   </si>
   <si>
@@ -245,6 +197,9 @@
   </si>
   <si>
     <t>Fase 2c</t>
+  </si>
+  <si>
+    <t>Abordagem</t>
   </si>
 </sst>
 </file>
@@ -293,13 +248,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,36 +549,36 @@
     <col min="10" max="10" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>50/COUNT(B2:B104)</f>
-        <v>0.4854368932038835</v>
+        <f>50/COUNT(B2:B90)</f>
+        <v>0.5617977528089888</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -657,13 +613,14 @@
       </c>
       <c r="K2" t="str">
         <f>INT($A$2*B2)&amp;":"&amp;TEXT(INT(($A$2*B2-INT($A$2*B2))*60),0)</f>
-        <v>0:29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0:33</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2*60</f>
-        <v>29.126213592233011</v>
+        <v>33.707865168539328</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -686,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I77" si="0">F3/60</f>
+        <f t="shared" ref="H3:I63" si="0">F3/60</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="I3">
@@ -694,15 +651,19 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J77" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
+        <f t="shared" ref="J3:J63" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
         <v>0:36</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K77" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
-        <v>0:58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K3:K66" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
+        <v>1:7</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -713,14 +674,14 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="3">IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
+        <f t="shared" ref="E4:E31" si="3">IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
         <v>2</v>
       </c>
       <c r="F4">
         <v>45</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G70" si="4">F4+G3</f>
+        <f t="shared" ref="G4:G67" si="4">F4+G3</f>
         <v>81</v>
       </c>
       <c r="H4">
@@ -736,16 +697,20 @@
         <v>1:21</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K7" si="7">INT($A$2*B4)&amp;":"&amp;TEXT(INT(($A$2*B4-INT($A$2*B4))*60),0)</f>
-        <v>1:27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1:41</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>2.9166666666666664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -774,16 +739,20 @@
         <v>1:26</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="7"/>
-        <v>1:56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2:14</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>7.7083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -800,28 +769,32 @@
         <v>91</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6" si="8">F6/60</f>
+        <f t="shared" ref="H6" si="7">F6/60</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6" si="9">G6/60</f>
+        <f t="shared" ref="I6" si="8">G6/60</f>
         <v>1.5166666666666666</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" ref="J6" si="10">INT(I6)&amp;":"&amp;INT((I6-INT(I6))*60)</f>
+        <f t="shared" ref="J6" si="9">INT(I6)&amp;":"&amp;INT((I6-INT(I6))*60)</f>
         <v>1:31</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ref="K6" si="11">INT($A$2*B6)&amp;":"&amp;TEXT(INT(($A$2*B6-INT($A$2*B6))*60),0)</f>
-        <v>2:25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2:48</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -850,16 +823,16 @@
         <v>1:45</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="7"/>
-        <v>2:54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3:22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -889,10 +862,14 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
-        <v>3:23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3:55</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -927,10 +904,12 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>3:53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4:29</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -965,10 +944,10 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
-        <v>4:22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5:3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1003,10 +982,10 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>4:51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5:37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1041,15 +1020,19 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
-        <v>5:20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6:10</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>0.15486111111111112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1059,562 +1042,571 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>4.55</v>
+        <v>5.05</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>4:33</v>
+        <v>5:2</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>5:49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6:44</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>F14/60</f>
+        <v>0.45</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>4.8833333333333337</v>
+        <f>G14/60</f>
+        <v>5.5</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>4:53</v>
+        <f>INT(I14)&amp;":"&amp;INT((I14-INT(I14))*60)</f>
+        <v>5:30</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>6:18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7:18</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.26458333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>5.05</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>5:2</v>
+        <v>6:0</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>6:47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7:51</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>5.8833333333333337</v>
+        <v>6.3833333333333337</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>5:53</v>
+        <v>6:23</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>7:16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>8:25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1.1333333333333333</v>
+        <f t="shared" ref="H17:H18" si="10">F17/60</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>7.0166666666666666</v>
+        <f t="shared" ref="I17:I18" si="11">G17/60</f>
+        <v>6.55</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7:0</v>
+        <f t="shared" ref="J17:J18" si="12">INT(I17)&amp;":"&amp;INT((I17-INT(I17))*60)</f>
+        <v>6:33</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v>7:46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>8:59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" ref="E18:E81" si="13">IF(NOT(OR(C18="Agenda",C18="Final",D18=D17)),E17+1,E17+0)</f>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>7.5166666666666666</v>
+        <f t="shared" si="11"/>
+        <v>6.55</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7:31</v>
+        <f t="shared" si="12"/>
+        <v>6:33</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
-        <v>8:15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>9:33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" ref="H19:H82" si="14">F19/60</f>
+        <v>1.25</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>7.9333333333333336</v>
+        <f t="shared" ref="I19:I82" si="15">G19/60</f>
+        <v>7.8</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7:56</v>
+        <f t="shared" ref="J19:J82" si="16">INT(I19)&amp;":"&amp;INT((I19-INT(I19))*60)</f>
+        <v>7:48</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
-        <v>8:44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <v>10:6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>8.2333333333333325</v>
+        <f t="shared" si="15"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>8:14</v>
+        <f t="shared" si="16"/>
+        <v>8:18</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
-        <v>9:13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <v>10:40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0.38333333333333336</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>8.6166666666666671</v>
+        <f t="shared" si="15"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>8:37</v>
+        <f t="shared" si="16"/>
+        <v>8:18</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
-        <v>9:42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>11:14</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.42430555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="14"/>
+        <v>0.96666666666666667</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>9.1166666666666671</v>
+        <f t="shared" si="15"/>
+        <v>9.2666666666666675</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9:7</v>
+        <f t="shared" si="16"/>
+        <v>9:16</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
-        <v>10:11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <v>11:47</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
         <v>570</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0.38333333333333336</v>
+        <f t="shared" si="14"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>9.5</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>9:30</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
-        <v>10:40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <v>12:21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
+        <f t="shared" si="14"/>
+        <v>0.56666666666666665</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>9.9499999999999993</v>
+        <f t="shared" si="15"/>
+        <v>10.066666666666666</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9:57</v>
+        <f t="shared" si="16"/>
+        <v>10:3</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
-        <v>11:9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <v>12:55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.45</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>9.9499999999999993</v>
+        <f t="shared" si="15"/>
+        <v>10.516666666666667</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>9:57</v>
+        <f t="shared" si="16"/>
+        <v>10:31</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
-        <v>11:39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <v>13:28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+        <f t="shared" si="14"/>
+        <v>0.3</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>11.2</v>
+        <f t="shared" si="15"/>
+        <v>10.816666666666666</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11:12</v>
+        <f t="shared" si="16"/>
+        <v>10:49</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
-        <v>12:8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <v>14:2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="14"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>11.7</v>
+        <f t="shared" si="15"/>
+        <v>11.283333333333333</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11:42</v>
+        <f t="shared" si="16"/>
+        <v>11:17</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="2"/>
-        <v>12:37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <v>14:36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1622,37 +1614,37 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="14"/>
+        <v>0.81666666666666665</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>11.9</v>
+        <f t="shared" si="15"/>
+        <v>12.1</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>11:54</v>
+        <f t="shared" si="16"/>
+        <v>12:5</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="2"/>
-        <v>13:6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <v>15:10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1660,37 +1652,38 @@
         <v>41</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <f>60+22</f>
+        <v>82</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>1.3666666666666667</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>12.033333333333333</v>
+        <f t="shared" si="15"/>
+        <v>13.466666666666667</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>12:1</v>
+        <f t="shared" si="16"/>
+        <v>13:28</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
-        <v>13:35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <v>15:43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1698,37 +1691,41 @@
         <v>42</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>26</v>
+        <f>60+15</f>
+        <v>75</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>748</v>
+        <v>883</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <f t="shared" si="14"/>
+        <v>1.25</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>12.466666666666667</v>
+        <f t="shared" si="15"/>
+        <v>14.716666666666667</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>12:28</v>
+        <f t="shared" si="16"/>
+        <v>14:43</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="2"/>
-        <v>14:4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <v>16:17</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.6430555555555556</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1736,37 +1733,37 @@
         <v>43</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>765</v>
+        <v>934</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>0.85</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>12.75</v>
+        <f t="shared" si="15"/>
+        <v>15.566666666666666</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>12:45</v>
+        <f t="shared" si="16"/>
+        <v>15:34</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="2"/>
-        <v>14:33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <v>16:51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1774,34 +1771,34 @@
         <v>44</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>794</v>
+        <v>966</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>13.233333333333333</v>
+        <f t="shared" si="15"/>
+        <v>16.100000000000001</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>13:14</v>
+        <f t="shared" si="16"/>
+        <v>16:6</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="2"/>
-        <v>15:2</v>
+        <v>17:24</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1812,34 +1809,34 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>812</v>
+        <v>996</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>13.533333333333333</v>
+        <f t="shared" si="15"/>
+        <v>16.600000000000001</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>13:32</v>
+        <f t="shared" si="16"/>
+        <v>16:36</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="2"/>
-        <v>15:32</v>
+        <v>17:58</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1850,34 +1847,34 @@
         <v>46</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>836</v>
+        <v>1056</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>13.933333333333334</v>
+        <f t="shared" si="15"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>13:56</v>
+        <f t="shared" si="16"/>
+        <v>17:36</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="2"/>
-        <v>16:1</v>
+        <v>18:32</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1888,34 +1885,34 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>23</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>836</v>
+        <v>1056</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>13.933333333333334</v>
+        <f t="shared" si="15"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>13:56</v>
+        <f t="shared" si="16"/>
+        <v>17:36</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
-        <v>16:30</v>
+        <v>19:6</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1926,34 +1923,34 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>24</v>
       </c>
       <c r="F36">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>894</v>
+        <v>1080</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.4</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>14.9</v>
+        <f t="shared" si="15"/>
+        <v>18</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>14:54</v>
+        <f t="shared" si="16"/>
+        <v>18:0</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
-        <v>16:59</v>
+        <v>19:39</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1961,37 +1958,37 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>908</v>
+        <v>1132</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:I37" si="12">F37/60</f>
-        <v>0.23333333333333334</v>
+        <f t="shared" si="14"/>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I37">
-        <f t="shared" si="12"/>
-        <v>15.133333333333333</v>
+        <f t="shared" si="15"/>
+        <v>18.866666666666667</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" ref="J37" si="13">INT(I37)&amp;":"&amp;INT((I37-INT(I37))*60)</f>
-        <v>15:7</v>
+        <f t="shared" si="16"/>
+        <v>18:52</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" ref="K37" si="14">INT($A$2*B37)&amp;":"&amp;TEXT(INT(($A$2*B37-INT($A$2*B37))*60),0)</f>
-        <v>17:28</v>
+        <f t="shared" si="2"/>
+        <v>20:13</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -1999,37 +1996,37 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>942</v>
+        <v>1167</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <f t="shared" si="14"/>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>15.7</v>
+        <f t="shared" si="15"/>
+        <v>19.45</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15:42</v>
+        <f t="shared" si="16"/>
+        <v>19:27</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
-        <v>17:57</v>
+        <v>20:47</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -2037,37 +2034,37 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>969</v>
+        <v>1183</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39" si="15">F39/60</f>
-        <v>0.45</v>
+        <f t="shared" si="14"/>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39" si="16">G39/60</f>
-        <v>16.149999999999999</v>
+        <f t="shared" si="15"/>
+        <v>19.716666666666665</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>16:8</v>
+        <f t="shared" si="16"/>
+        <v>19:42</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
-        <v>18:26</v>
+        <v>21:20</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -2075,37 +2072,37 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>987</v>
+        <v>1215</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40:I40" si="17">F40/60</f>
-        <v>0.3</v>
+        <f t="shared" si="14"/>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I40">
-        <f t="shared" si="17"/>
-        <v>16.45</v>
+        <f t="shared" si="15"/>
+        <v>20.25</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" ref="J40" si="18">INT(I40)&amp;":"&amp;INT((I40-INT(I40))*60)</f>
-        <v>16:27</v>
+        <f t="shared" si="16"/>
+        <v>20:15</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" ref="K40" si="19">INT($A$2*B40)&amp;":"&amp;TEXT(INT(($A$2*B40-INT($A$2*B40))*60),0)</f>
-        <v>18:55</v>
+        <f t="shared" si="2"/>
+        <v>21:54</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -2113,37 +2110,37 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>29</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>1015</v>
+        <v>1229</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>16.916666666666668</v>
+        <f t="shared" si="15"/>
+        <v>20.483333333333334</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>16:55</v>
+        <f t="shared" si="16"/>
+        <v>20:29</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>19:25</v>
+        <v>22:28</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2151,37 +2148,37 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>30</v>
       </c>
       <c r="F42">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>1064</v>
+        <v>1241</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
-        <v>0.81666666666666665</v>
+        <f t="shared" si="14"/>
+        <v>0.2</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>17.733333333333334</v>
+        <f t="shared" si="15"/>
+        <v>20.683333333333334</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>17:44</v>
+        <f t="shared" si="16"/>
+        <v>20:41</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
-        <v>19:54</v>
+        <v>23:2</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -2189,38 +2186,37 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>31</v>
       </c>
       <c r="F43">
-        <f>60+22</f>
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>1146</v>
+        <v>1269</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
-        <v>19.100000000000001</v>
+        <f t="shared" si="15"/>
+        <v>21.15</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>19:6</v>
+        <f t="shared" si="16"/>
+        <v>21:8</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
-        <v>20:23</v>
+        <v>23:35</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2228,38 +2224,37 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>32</v>
       </c>
       <c r="F44">
-        <f>60+15</f>
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>1221</v>
+        <v>1282</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>20.350000000000001</v>
+        <f t="shared" si="15"/>
+        <v>21.366666666666667</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>20:21</v>
+        <f t="shared" si="16"/>
+        <v>21:22</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
-        <v>20:52</v>
+        <v>24:9</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
@@ -2267,37 +2262,37 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="13"/>
+        <v>33</v>
       </c>
       <c r="F45">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>1272</v>
+        <v>1312</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
-        <v>21.2</v>
+        <f t="shared" si="15"/>
+        <v>21.866666666666667</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>21:12</v>
+        <f t="shared" si="16"/>
+        <v>21:52</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
-        <v>21:21</v>
+        <v>24:43</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -2305,37 +2300,37 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="13"/>
+        <v>34</v>
       </c>
       <c r="F46">
         <v>32</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>1304</v>
+        <v>1344</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
-        <v>21.733333333333334</v>
+        <f t="shared" si="15"/>
+        <v>22.4</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>21:44</v>
+        <f t="shared" si="16"/>
+        <v>22:23</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
-        <v>21:50</v>
+        <v>25:16</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -2343,37 +2338,37 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>35</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>1334</v>
+        <v>1375</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="14"/>
+        <v>0.51666666666666672</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>22.233333333333334</v>
+        <f t="shared" si="15"/>
+        <v>22.916666666666668</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>22:14</v>
+        <f t="shared" si="16"/>
+        <v>22:55</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
-        <v>22:19</v>
+        <v>25:50</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -2381,37 +2376,37 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>36</v>
       </c>
       <c r="F48">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
-        <v>23.233333333333334</v>
+        <f t="shared" si="15"/>
+        <v>23.133333333333333</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>23:14</v>
+        <f t="shared" si="16"/>
+        <v>23:7</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
-        <v>22:48</v>
+        <v>26:24</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2419,37 +2414,37 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>37</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
-        <v>23.233333333333334</v>
+        <f t="shared" si="15"/>
+        <v>23.3</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>23:14</v>
+        <f t="shared" si="16"/>
+        <v>23:18</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
-        <v>23:18</v>
+        <v>26:57</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2457,37 +2452,37 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="13"/>
+        <v>38</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="14"/>
+        <v>0.3</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>23.633333333333333</v>
+        <f t="shared" si="15"/>
+        <v>23.6</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>23:38</v>
+        <f t="shared" si="16"/>
+        <v>23:36</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
-        <v>23:47</v>
+        <v>27:31</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2495,37 +2490,37 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="13"/>
+        <v>39</v>
       </c>
       <c r="F51">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>1470</v>
+        <v>1424</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
+        <f t="shared" si="15"/>
+        <v>23.733333333333334</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>24:30</v>
+        <f t="shared" si="16"/>
+        <v>23:44</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v>24:16</v>
+        <v>28:5</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2533,37 +2528,37 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="13"/>
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>1505</v>
+        <v>1450</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="14"/>
+        <v>0.43333333333333335</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>25.083333333333332</v>
+        <f t="shared" si="15"/>
+        <v>24.166666666666668</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>25:4</v>
+        <f t="shared" si="16"/>
+        <v>24:10</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
-        <v>24:45</v>
+        <v>28:39</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2571,37 +2566,37 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E53">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="13"/>
+        <v>41</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>1521</v>
+        <v>1487</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="14"/>
+        <v>0.6166666666666667</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>25.35</v>
+        <f t="shared" si="15"/>
+        <v>24.783333333333335</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>25:21</v>
+        <f t="shared" si="16"/>
+        <v>24:47</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
-        <v>25:14</v>
+        <v>29:12</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2609,37 +2604,37 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="13"/>
+        <v>42</v>
       </c>
       <c r="F54">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>1553</v>
+        <v>1516</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>0.48333333333333334</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
-        <v>25.883333333333333</v>
+        <f t="shared" si="15"/>
+        <v>25.266666666666666</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>25:53</v>
+        <f t="shared" si="16"/>
+        <v>25:15</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
-        <v>25:43</v>
+        <v>29:46</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2647,37 +2642,37 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>43</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
-        <v>0.23333333333333334</v>
+        <f t="shared" si="14"/>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
-        <v>26.116666666666667</v>
+        <f t="shared" si="15"/>
+        <v>26.2</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>26:7</v>
+        <f t="shared" si="16"/>
+        <v>26:12</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>26:12</v>
+        <v>30:20</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2685,37 +2680,37 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>44</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="14"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
-        <v>26.316666666666666</v>
+        <f t="shared" si="15"/>
+        <v>26.333333333333332</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>26:19</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
-        <v>26:41</v>
+        <v>30:53</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -2723,37 +2718,37 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>45</v>
       </c>
       <c r="F57">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>26.783333333333335</v>
+        <f t="shared" si="15"/>
+        <v>26.45</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>26:47</v>
+        <f t="shared" si="16"/>
+        <v>26:27</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
-        <v>27:11</v>
+        <v>31:27</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -2761,37 +2756,37 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="13"/>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>13</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="15"/>
+        <v>26.666666666666668</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>27:0</v>
+        <f t="shared" si="16"/>
+        <v>26:40</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
-        <v>27:40</v>
+        <v>32:1</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -2799,37 +2794,37 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="13"/>
+        <v>47</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>1650</v>
+        <v>1625</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="14"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
+        <f t="shared" si="15"/>
+        <v>27.083333333333332</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>27:30</v>
+        <f t="shared" si="16"/>
+        <v>27:4</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
-        <v>28:9</v>
+        <v>32:35</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -2837,37 +2832,37 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="F60">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>1682</v>
+        <v>1639</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
-        <v>28.033333333333335</v>
+        <f t="shared" si="15"/>
+        <v>27.316666666666666</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>28:2</v>
+        <f t="shared" si="16"/>
+        <v>27:19</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
-        <v>28:38</v>
+        <v>33:8</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -2875,37 +2870,37 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f t="shared" si="13"/>
+        <v>49</v>
       </c>
       <c r="F61">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>1713</v>
+        <v>1681</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <f t="shared" si="14"/>
+        <v>0.7</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
-        <v>28.55</v>
+        <f t="shared" si="15"/>
+        <v>28.016666666666666</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>28:33</v>
+        <f t="shared" si="16"/>
+        <v>28:0</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>29:7</v>
+        <v>33:42</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -2913,37 +2908,37 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="F62">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>1726</v>
+        <v>1706</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
-        <v>28.766666666666666</v>
+        <f t="shared" si="15"/>
+        <v>28.433333333333334</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>28:45</v>
+        <f t="shared" si="16"/>
+        <v>28:26</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
-        <v>29:36</v>
+        <v>34:16</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -2951,37 +2946,37 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>51</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
-        <v>28.933333333333334</v>
+        <f t="shared" si="15"/>
+        <v>28.766666666666666</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>28:56</v>
+        <f t="shared" si="16"/>
+        <v>28:45</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
-        <v>30:5</v>
+        <v>34:49</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -2989,37 +2984,37 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>52</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
-        <v>29.233333333333334</v>
+        <f t="shared" si="15"/>
+        <v>28.983333333333334</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>29:14</v>
+        <f t="shared" si="16"/>
+        <v>28:59</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
-        <v>30:34</v>
+        <v>35:23</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -3027,37 +3022,37 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <f t="shared" si="13"/>
+        <v>53</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>29.366666666666667</v>
+        <f t="shared" si="15"/>
+        <v>29.316666666666666</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>29:22</v>
+        <f t="shared" si="16"/>
+        <v>29:19</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
-        <v>31:4</v>
+        <v>35:57</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3065,37 +3060,37 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <f t="shared" si="13"/>
+        <v>54</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
-        <v>29.8</v>
+        <f t="shared" si="15"/>
+        <v>29.65</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>29:48</v>
+        <f t="shared" si="16"/>
+        <v>29:38</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="2"/>
-        <v>31:33</v>
+        <v>36:31</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3103,37 +3098,37 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D67">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f t="shared" si="13"/>
+        <v>55</v>
       </c>
       <c r="F67">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>1825</v>
+        <v>1799</v>
       </c>
       <c r="H67">
-        <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I67">
-        <f t="shared" si="0"/>
-        <v>30.416666666666668</v>
+        <f t="shared" si="15"/>
+        <v>29.983333333333334</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>30:25</v>
+        <f t="shared" si="16"/>
+        <v>29:59</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="2"/>
-        <v>32:2</v>
+        <f t="shared" ref="K67:K90" si="17">INT($A$2*B67)&amp;":"&amp;TEXT(INT(($A$2*B67-INT($A$2*B67))*60),0)</f>
+        <v>37:4</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -3141,37 +3136,37 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E104" si="20">IF(NOT(OR(C68="Agenda",C68="Final",D68=D67)),E67+1,E67+0)</f>
-        <v>32</v>
+        <f t="shared" si="13"/>
+        <v>56</v>
       </c>
       <c r="F68">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
-        <v>1854</v>
+        <f t="shared" ref="G68:G90" si="18">F68+G67</f>
+        <v>1819</v>
       </c>
       <c r="H68">
-        <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I68">
-        <f t="shared" si="0"/>
-        <v>30.9</v>
+        <f t="shared" si="15"/>
+        <v>30.316666666666666</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>30:53</v>
+        <f t="shared" si="16"/>
+        <v>30:19</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="2"/>
-        <v>32:31</v>
+        <f t="shared" si="17"/>
+        <v>37:38</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -3179,37 +3174,37 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E69">
-        <f t="shared" si="20"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>57</v>
       </c>
       <c r="F69">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
-        <v>1910</v>
+        <f t="shared" si="18"/>
+        <v>1839</v>
       </c>
       <c r="H69">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I69">
-        <f t="shared" si="0"/>
-        <v>31.833333333333332</v>
+        <f t="shared" si="15"/>
+        <v>30.65</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>31:49</v>
+        <f t="shared" si="16"/>
+        <v>30:38</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="2"/>
-        <v>33:0</v>
+        <f t="shared" si="17"/>
+        <v>38:12</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -3217,37 +3212,37 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E70">
-        <f t="shared" si="20"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>58</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
-        <v>1918</v>
+        <f t="shared" si="18"/>
+        <v>1849</v>
       </c>
       <c r="H70">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I70">
-        <f t="shared" si="0"/>
-        <v>31.966666666666665</v>
+        <f t="shared" si="15"/>
+        <v>30.816666666666666</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>31:57</v>
+        <f t="shared" si="16"/>
+        <v>30:49</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="2"/>
-        <v>33:29</v>
+        <f t="shared" si="17"/>
+        <v>38:45</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
@@ -3255,37 +3250,37 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E71">
-        <f t="shared" si="20"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>59</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G104" si="21">F71+G70</f>
-        <v>1925</v>
+        <f t="shared" si="18"/>
+        <v>1861</v>
       </c>
       <c r="H71">
-        <f t="shared" si="0"/>
-        <v>0.11666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.2</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I104" si="22">G71/60</f>
-        <v>32.083333333333336</v>
+        <f t="shared" si="15"/>
+        <v>31.016666666666666</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>32:5</v>
+        <f t="shared" si="16"/>
+        <v>31:0</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="2"/>
-        <v>33:58</v>
+        <f t="shared" si="17"/>
+        <v>39:19</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3293,37 +3288,37 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D72">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E72">
-        <f t="shared" si="20"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>60</v>
       </c>
       <c r="F72">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G72">
-        <f t="shared" si="21"/>
-        <v>1938</v>
+        <f t="shared" si="18"/>
+        <v>1884</v>
       </c>
       <c r="H72">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I72">
-        <f t="shared" si="22"/>
-        <v>32.299999999999997</v>
+        <f t="shared" si="15"/>
+        <v>31.4</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>32:17</v>
+        <f t="shared" si="16"/>
+        <v>31:23</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="2"/>
-        <v>34:27</v>
+        <f t="shared" si="17"/>
+        <v>39:53</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -3331,37 +3326,37 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E73">
-        <f t="shared" si="20"/>
-        <v>33</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="F73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G73">
-        <f t="shared" si="21"/>
-        <v>1963</v>
+        <f t="shared" si="18"/>
+        <v>1904</v>
       </c>
       <c r="H73">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I73">
-        <f t="shared" si="22"/>
-        <v>32.716666666666669</v>
+        <f t="shared" si="15"/>
+        <v>31.733333333333334</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>32:43</v>
+        <f t="shared" si="16"/>
+        <v>31:44</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="2"/>
-        <v>34:57</v>
+        <f t="shared" si="17"/>
+        <v>40:26</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -3369,37 +3364,37 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D74">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E74">
-        <f t="shared" si="20"/>
-        <v>34</v>
+        <f t="shared" si="13"/>
+        <v>62</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G74">
-        <f t="shared" si="21"/>
-        <v>1977</v>
+        <f t="shared" si="18"/>
+        <v>1929</v>
       </c>
       <c r="H74">
-        <f t="shared" si="0"/>
-        <v>0.23333333333333334</v>
+        <f t="shared" si="14"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I74">
-        <f t="shared" si="22"/>
-        <v>32.950000000000003</v>
+        <f t="shared" si="15"/>
+        <v>32.15</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>32:57</v>
+        <f t="shared" si="16"/>
+        <v>32:8</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="2"/>
-        <v>35:26</v>
+        <f t="shared" si="17"/>
+        <v>41:0</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
@@ -3407,37 +3402,37 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E75">
-        <f t="shared" si="20"/>
-        <v>34</v>
+        <f t="shared" si="13"/>
+        <v>63</v>
       </c>
       <c r="F75">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <f t="shared" si="21"/>
-        <v>2019</v>
+        <f t="shared" si="18"/>
+        <v>1949</v>
       </c>
       <c r="H75">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I75">
-        <f t="shared" si="22"/>
-        <v>33.65</v>
+        <f t="shared" si="15"/>
+        <v>32.483333333333334</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>33:38</v>
+        <f t="shared" si="16"/>
+        <v>32:29</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="2"/>
-        <v>35:55</v>
+        <f t="shared" si="17"/>
+        <v>41:34</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -3445,37 +3440,37 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E76">
-        <f t="shared" si="20"/>
-        <v>35</v>
+        <f t="shared" si="13"/>
+        <v>64</v>
       </c>
       <c r="F76">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G76">
-        <f t="shared" si="21"/>
-        <v>2044</v>
+        <f t="shared" si="18"/>
+        <v>1976</v>
       </c>
       <c r="H76">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="14"/>
+        <v>0.45</v>
       </c>
       <c r="I76">
-        <f t="shared" si="22"/>
-        <v>34.06666666666667</v>
+        <f t="shared" si="15"/>
+        <v>32.93333333333333</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>34:4</v>
+        <f t="shared" si="16"/>
+        <v>32:55</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="2"/>
-        <v>36:24</v>
+        <f t="shared" si="17"/>
+        <v>42:8</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -3483,37 +3478,37 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E77">
-        <f t="shared" si="20"/>
-        <v>35</v>
+        <f t="shared" si="13"/>
+        <v>65</v>
       </c>
       <c r="F77">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G77">
-        <f t="shared" si="21"/>
-        <v>2064</v>
+        <f t="shared" si="18"/>
+        <v>2001</v>
       </c>
       <c r="H77">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="14"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I77">
-        <f t="shared" si="22"/>
-        <v>34.4</v>
+        <f t="shared" si="15"/>
+        <v>33.35</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>34:23</v>
+        <f t="shared" si="16"/>
+        <v>33:21</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="2"/>
-        <v>36:53</v>
+        <f t="shared" si="17"/>
+        <v>42:41</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
@@ -3521,37 +3516,37 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="F78">
         <v>36</v>
       </c>
-      <c r="F78">
-        <v>13</v>
-      </c>
       <c r="G78">
-        <f t="shared" si="21"/>
-        <v>2077</v>
+        <f t="shared" si="18"/>
+        <v>2037</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H104" si="23">F78/60</f>
-        <v>0.21666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.6</v>
       </c>
       <c r="I78">
-        <f t="shared" si="22"/>
-        <v>34.616666666666667</v>
+        <f t="shared" si="15"/>
+        <v>33.950000000000003</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J104" si="24">INT(I78)&amp;":"&amp;INT((I78-INT(I78))*60)</f>
-        <v>34:37</v>
+        <f t="shared" si="16"/>
+        <v>33:57</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" ref="K78:K104" si="25">INT($A$2*B78)&amp;":"&amp;TEXT(INT(($A$2*B78-INT($A$2*B78))*60),0)</f>
-        <v>37:22</v>
+        <f t="shared" si="17"/>
+        <v>43:15</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
@@ -3559,37 +3554,37 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E79">
-        <f t="shared" si="20"/>
-        <v>36</v>
+        <f t="shared" si="13"/>
+        <v>66</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="21"/>
-        <v>2097</v>
+        <f t="shared" si="18"/>
+        <v>2037</v>
       </c>
       <c r="H79">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" si="22"/>
-        <v>34.950000000000003</v>
+        <f t="shared" si="15"/>
+        <v>33.950000000000003</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>34:57</v>
+        <f t="shared" si="16"/>
+        <v>33:57</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="25"/>
-        <v>37:51</v>
+        <f t="shared" si="17"/>
+        <v>43:49</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -3597,37 +3592,37 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D80">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E80">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" si="13"/>
+        <v>67</v>
       </c>
       <c r="F80">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G80">
-        <f t="shared" si="21"/>
-        <v>2117</v>
+        <f t="shared" si="18"/>
+        <v>2050</v>
       </c>
       <c r="H80">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I80">
-        <f t="shared" si="22"/>
-        <v>35.283333333333331</v>
+        <f t="shared" si="15"/>
+        <v>34.166666666666664</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>35:16</v>
+        <f t="shared" si="16"/>
+        <v>34:9</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="25"/>
-        <v>38:20</v>
+        <f t="shared" si="17"/>
+        <v>44:22</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
@@ -3635,37 +3630,37 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D81">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E81">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" si="13"/>
+        <v>68</v>
       </c>
       <c r="F81">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G81">
-        <f t="shared" si="21"/>
-        <v>2137</v>
+        <f t="shared" si="18"/>
+        <v>2103</v>
       </c>
       <c r="H81">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="14"/>
+        <v>0.8833333333333333</v>
       </c>
       <c r="I81">
-        <f t="shared" si="22"/>
-        <v>35.616666666666667</v>
+        <f t="shared" si="15"/>
+        <v>35.049999999999997</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>35:37</v>
+        <f t="shared" si="16"/>
+        <v>35:2</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="25"/>
-        <v>38:50</v>
+        <f t="shared" si="17"/>
+        <v>44:56</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
@@ -3673,37 +3668,37 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D82">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E82">
-        <f t="shared" si="20"/>
-        <v>37</v>
+        <f t="shared" ref="E82:E90" si="19">IF(NOT(OR(C82="Agenda",C82="Final",D82=D81)),E81+1,E81+0)</f>
+        <v>69</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G82">
-        <f t="shared" si="21"/>
-        <v>2157</v>
+        <f t="shared" si="18"/>
+        <v>2118</v>
       </c>
       <c r="H82">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="14"/>
+        <v>0.25</v>
       </c>
       <c r="I82">
-        <f t="shared" si="22"/>
-        <v>35.950000000000003</v>
+        <f t="shared" si="15"/>
+        <v>35.299999999999997</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>35:57</v>
+        <f t="shared" si="16"/>
+        <v>35:17</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="25"/>
-        <v>39:19</v>
+        <f t="shared" si="17"/>
+        <v>45:30</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -3711,37 +3706,37 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E83">
-        <f t="shared" si="20"/>
-        <v>38</v>
+        <f t="shared" si="19"/>
+        <v>70</v>
       </c>
       <c r="F83">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G83">
-        <f t="shared" si="21"/>
-        <v>2177</v>
+        <f t="shared" si="18"/>
+        <v>2126</v>
       </c>
       <c r="H83">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="H83:H90" si="20">F83/60</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I83">
-        <f t="shared" si="22"/>
-        <v>36.283333333333331</v>
+        <f t="shared" ref="I83:I90" si="21">G83/60</f>
+        <v>35.43333333333333</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>36:16</v>
+        <f t="shared" ref="J83:J90" si="22">INT(I83)&amp;":"&amp;INT((I83-INT(I83))*60)</f>
+        <v>35:25</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="25"/>
-        <v>39:48</v>
+        <f t="shared" si="17"/>
+        <v>46:4</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
@@ -3749,37 +3744,37 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D84">
+        <v>75</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="19"/>
+        <v>71</v>
+      </c>
+      <c r="F84">
         <v>45</v>
       </c>
-      <c r="E84">
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>2171</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="20"/>
-        <v>38</v>
-      </c>
-      <c r="F84">
-        <v>10</v>
-      </c>
-      <c r="G84">
+        <v>0.75</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="21"/>
-        <v>2187</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I84">
+        <v>36.18333333333333</v>
+      </c>
+      <c r="J84" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="J84" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>36:27</v>
+        <v>36:10</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="25"/>
-        <v>40:17</v>
+        <f t="shared" si="17"/>
+        <v>46:37</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
@@ -3787,37 +3782,37 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E85">
+        <f t="shared" si="19"/>
+        <v>72</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="18"/>
+        <v>2188</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="F85">
-        <v>12</v>
-      </c>
-      <c r="G85">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="21"/>
-        <v>2199</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="23"/>
-        <v>0.2</v>
-      </c>
-      <c r="I85">
+        <v>36.466666666666669</v>
+      </c>
+      <c r="J85" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36.65</v>
-      </c>
-      <c r="J85" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>36:38</v>
+        <v>36:28</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="25"/>
-        <v>40:46</v>
+        <f t="shared" si="17"/>
+        <v>47:11</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -3825,37 +3820,37 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E86">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="18"/>
+        <v>2199</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="20"/>
-        <v>39</v>
-      </c>
-      <c r="F86">
-        <v>23</v>
-      </c>
-      <c r="G86">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="21"/>
-        <v>2222</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="23"/>
-        <v>0.38333333333333336</v>
-      </c>
-      <c r="I86">
+        <v>36.65</v>
+      </c>
+      <c r="J86" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>37.033333333333331</v>
-      </c>
-      <c r="J86" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>37:1</v>
+        <v>36:38</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="25"/>
-        <v>41:15</v>
+        <f t="shared" si="17"/>
+        <v>47:45</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
@@ -3863,37 +3858,37 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D87">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E87">
+        <f t="shared" si="19"/>
+        <v>74</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>2207</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="F87">
-        <v>20</v>
-      </c>
-      <c r="G87">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="21"/>
-        <v>2242</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I87">
+        <v>36.783333333333331</v>
+      </c>
+      <c r="J87" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>37.366666666666667</v>
-      </c>
-      <c r="J87" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>37:22</v>
+        <v>36:46</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="25"/>
-        <v>41:44</v>
+        <f t="shared" si="17"/>
+        <v>48:18</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
@@ -3901,37 +3896,37 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D88">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E88">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
+        <v>2217</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="F88">
-        <v>25</v>
-      </c>
-      <c r="G88">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="21"/>
-        <v>2267</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="23"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I88">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="J88" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>37.783333333333331</v>
-      </c>
-      <c r="J88" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>37:46</v>
+        <v>36:57</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="25"/>
-        <v>42:13</v>
+        <f t="shared" si="17"/>
+        <v>48:52</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
@@ -3939,37 +3934,37 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D89">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E89">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>2227</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="20"/>
-        <v>41</v>
-      </c>
-      <c r="F89">
-        <v>20</v>
-      </c>
-      <c r="G89">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="21"/>
-        <v>2287</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I89">
+        <v>37.116666666666667</v>
+      </c>
+      <c r="J89" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>38.116666666666667</v>
-      </c>
-      <c r="J89" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>38:7</v>
+        <v>37:7</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="25"/>
-        <v>42:43</v>
+        <f t="shared" si="17"/>
+        <v>49:26</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
@@ -3977,568 +3972,36 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D90">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E90">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>2237</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="20"/>
-        <v>41</v>
-      </c>
-      <c r="F90">
-        <v>27</v>
-      </c>
-      <c r="G90">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="21"/>
-        <v>2314</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="23"/>
-        <v>0.45</v>
-      </c>
-      <c r="I90">
+        <v>37.283333333333331</v>
+      </c>
+      <c r="J90" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>38.56666666666667</v>
-      </c>
-      <c r="J90" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>38:34</v>
+        <v>37:16</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="25"/>
-        <v>43:12</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="C91" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91">
-        <v>48</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="20"/>
-        <v>41</v>
-      </c>
-      <c r="F91">
-        <v>25</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="21"/>
-        <v>2339</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="23"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="22"/>
-        <v>38.983333333333334</v>
-      </c>
-      <c r="J91" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>38:59</v>
-      </c>
-      <c r="K91" t="str">
-        <f t="shared" si="25"/>
-        <v>43:41</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92">
-        <v>48</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="20"/>
-        <v>41</v>
-      </c>
-      <c r="F92">
-        <v>36</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="21"/>
-        <v>2375</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="23"/>
-        <v>0.6</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="22"/>
-        <v>39.583333333333336</v>
-      </c>
-      <c r="J92" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>39:35</v>
-      </c>
-      <c r="K92" t="str">
-        <f t="shared" si="25"/>
-        <v>44:10</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>92</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>49</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="20"/>
-        <v>41</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="21"/>
-        <v>2375</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="22"/>
-        <v>39.583333333333336</v>
-      </c>
-      <c r="J93" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>39:35</v>
-      </c>
-      <c r="K93" t="str">
-        <f t="shared" si="25"/>
-        <v>44:39</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D94">
-        <v>50</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="F94">
-        <v>13</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="21"/>
-        <v>2388</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="23"/>
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="22"/>
-        <v>39.799999999999997</v>
-      </c>
-      <c r="J94" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>39:47</v>
-      </c>
-      <c r="K94" t="str">
-        <f t="shared" si="25"/>
-        <v>45:8</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
-      </c>
-      <c r="D95">
-        <v>50</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="F95">
-        <v>53</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="21"/>
-        <v>2441</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="23"/>
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="22"/>
-        <v>40.68333333333333</v>
-      </c>
-      <c r="J95" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>40:40</v>
-      </c>
-      <c r="K95" t="str">
-        <f t="shared" si="25"/>
-        <v>45:37</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96">
-        <v>50</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="F96">
-        <v>15</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="21"/>
-        <v>2456</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="23"/>
-        <v>0.25</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="22"/>
-        <v>40.93333333333333</v>
-      </c>
-      <c r="J96" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>40:55</v>
-      </c>
-      <c r="K96" t="str">
-        <f t="shared" si="25"/>
-        <v>46:6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97">
-        <v>50</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="F97">
-        <v>8</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="21"/>
-        <v>2464</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="23"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="22"/>
-        <v>41.06666666666667</v>
-      </c>
-      <c r="J97" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>41:4</v>
-      </c>
-      <c r="K97" t="str">
-        <f t="shared" si="25"/>
-        <v>46:36</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98">
-        <v>50</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="20"/>
-        <v>42</v>
-      </c>
-      <c r="F98">
-        <v>45</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="21"/>
-        <v>2509</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="23"/>
-        <v>0.75</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="22"/>
-        <v>41.81666666666667</v>
-      </c>
-      <c r="J98" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>41:49</v>
-      </c>
-      <c r="K98" t="str">
-        <f t="shared" si="25"/>
-        <v>47:5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99">
-        <v>51</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="F99">
-        <v>17</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="21"/>
-        <v>2526</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="23"/>
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="22"/>
-        <v>42.1</v>
-      </c>
-      <c r="J99" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>42:6</v>
-      </c>
-      <c r="K99" t="str">
-        <f t="shared" si="25"/>
-        <v>47:34</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100">
-        <v>51</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="F100">
-        <v>11</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="21"/>
-        <v>2537</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="23"/>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="22"/>
-        <v>42.283333333333331</v>
-      </c>
-      <c r="J100" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>42:16</v>
-      </c>
-      <c r="K100" t="str">
-        <f t="shared" si="25"/>
-        <v>48:3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101">
-        <v>51</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="F101">
-        <v>8</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="21"/>
-        <v>2545</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="23"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="22"/>
-        <v>42.416666666666664</v>
-      </c>
-      <c r="J101" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>42:24</v>
-      </c>
-      <c r="K101" t="str">
-        <f t="shared" si="25"/>
-        <v>48:32</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>101</v>
-      </c>
-      <c r="C102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102">
-        <v>51</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="F102">
-        <v>10</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="21"/>
-        <v>2555</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="22"/>
-        <v>42.583333333333336</v>
-      </c>
-      <c r="J102" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>42:35</v>
-      </c>
-      <c r="K102" t="str">
-        <f t="shared" si="25"/>
-        <v>49:1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>102</v>
-      </c>
-      <c r="C103" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103">
-        <v>51</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="F103">
-        <v>10</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="21"/>
-        <v>2565</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="22"/>
-        <v>42.75</v>
-      </c>
-      <c r="J103" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>42:45</v>
-      </c>
-      <c r="K103" t="str">
-        <f t="shared" si="25"/>
-        <v>49:30</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>103</v>
-      </c>
-      <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104">
-        <v>52</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="20"/>
-        <v>43</v>
-      </c>
-      <c r="F104">
-        <v>10</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="21"/>
-        <v>2575</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="22"/>
-        <v>42.916666666666664</v>
-      </c>
-      <c r="J104" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>42:54</v>
-      </c>
-      <c r="K104" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>50:0</v>
       </c>
     </row>

--- a/Apresentação/Lista slides e tempo.xlsx
+++ b/Apresentação/Lista slides e tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F14CE7-50AF-4A17-9277-723DBD0BB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57432D5F-3312-4A7B-9766-8543C7938193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Capa</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Objetivos</t>
-  </si>
-  <si>
-    <t>Materiais e Metodos</t>
   </si>
   <si>
     <t>Perfil dos participantes</t>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:N1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,36 +546,36 @@
     <col min="10" max="10" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>50/COUNT(B2:B90)</f>
-        <v>0.5617977528089888</v>
+        <f>50/COUNT(B2:B89)</f>
+        <v>0.56818181818181823</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -613,14 +610,14 @@
       </c>
       <c r="K2" t="str">
         <f>INT($A$2*B2)&amp;":"&amp;TEXT(INT(($A$2*B2-INT($A$2*B2))*60),0)</f>
-        <v>0:33</v>
+        <v>0:34</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2*60</f>
-        <v>33.707865168539328</v>
+        <v>34.090909090909093</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -643,7 +640,7 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I63" si="0">F3/60</f>
+        <f t="shared" ref="H3:I16" si="0">F3/60</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="I3">
@@ -651,19 +648,22 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J63" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
+        <f t="shared" ref="J3:J16" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
         <v>0:36</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
-        <v>1:7</v>
+        <f t="shared" ref="K3:K65" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
+        <v>1:8</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4">
         <v>2.2222222222222223E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E31" si="3">IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
+        <f t="shared" ref="E4:E17" si="3">IF(NOT(OR(C4="Agenda",C4="Final",D4=D3)),E3+1,E3+0)</f>
         <v>2</v>
       </c>
       <c r="F4">
@@ -698,19 +698,22 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="2"/>
-        <v>1:41</v>
+        <v>1:42</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4">
         <v>2.9166666666666664E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <v>2.361111111111111E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -740,19 +743,22 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="2"/>
-        <v>2:14</v>
+        <v>2:16</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4">
         <v>7.7083333333333337E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>7.2222222222222229E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -782,19 +788,22 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>2:48</v>
+        <v>2:50</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
         <v>0.1013888888888889</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <v>7.7083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -824,15 +833,18 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="2"/>
-        <v>3:22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3:24</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -862,14 +874,17 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
-        <v>3:55</v>
+        <v>3:58</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4">
         <v>0.1013888888888889</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <v>8.819444444444445E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -904,12 +919,15 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>4:29</v>
+        <v>4:32</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="4">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -944,10 +962,13 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
-        <v>5:3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5:6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.10208333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -982,10 +1003,13 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>5:37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5:40</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.10902777777777778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1020,14 +1044,17 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
-        <v>6:10</v>
+        <v>6:15</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>0.15486111111111112</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="4">
+        <v>0.13263888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1062,11 +1089,14 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>6:44</v>
+        <v>6:49</v>
       </c>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="4">
+        <v>0.19166666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1101,13 +1131,14 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v>7:18</v>
+        <v>7:23</v>
       </c>
       <c r="L14" s="4">
         <v>0.26458333333333334</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1142,16 +1173,19 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>7:51</v>
+        <v>7:57</v>
       </c>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1181,15 +1215,18 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>8:25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>8:31</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.29305555555555557</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1219,10 +1256,13 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
-        <v>8:59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>9:5</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1257,10 +1297,10 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
-        <v>9:33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>9:39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1282,28 +1322,31 @@
         <v>468</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H82" si="14">F19/60</f>
+        <f t="shared" ref="H19:H81" si="14">F19/60</f>
         <v>1.25</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I82" si="15">G19/60</f>
+        <f t="shared" ref="I19:I81" si="15">G19/60</f>
         <v>7.8</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" ref="J19:J82" si="16">INT(I19)&amp;":"&amp;INT((I19-INT(I19))*60)</f>
+        <f t="shared" ref="J19:J81" si="16">INT(I19)&amp;":"&amp;INT((I19-INT(I19))*60)</f>
         <v>7:48</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
-        <v>10:6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>10:13</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.32083333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -1333,10 +1376,13 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
-        <v>10:40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>10:47</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.37222222222222223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1371,52 +1417,57 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
-        <v>11:14</v>
+        <v>11:21</v>
       </c>
       <c r="L21" s="4">
         <v>0.42430555555555555</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="4">
+        <v>0.41180555555555554</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="F22">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="H22">
         <f t="shared" si="14"/>
-        <v>0.96666666666666667</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I22">
         <f t="shared" si="15"/>
-        <v>9.2666666666666675</v>
+        <v>8.5333333333333332</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>9:16</v>
+        <v>8:32</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
-        <v>11:47</v>
-      </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>11:55</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1424,37 +1475,40 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="H23">
         <f t="shared" si="14"/>
-        <v>0.23333333333333334</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="I23">
         <f t="shared" si="15"/>
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>9:30</v>
+        <v>9:5</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
-        <v>12:21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>12:30</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.4458333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1462,37 +1516,37 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="F24">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="H24">
         <f t="shared" si="14"/>
-        <v>0.56666666666666665</v>
+        <v>0.45</v>
       </c>
       <c r="I24">
         <f t="shared" si="15"/>
-        <v>10.066666666666666</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>10:3</v>
+        <v>9:33</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
-        <v>12:55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>13:4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1500,37 +1554,37 @@
         <v>52</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="H25">
         <f t="shared" si="14"/>
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I25">
         <f t="shared" si="15"/>
-        <v>10.516666666666667</v>
+        <v>9.85</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>10:31</v>
+        <v>9:51</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
-        <v>13:28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+        <v>13:38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1538,75 +1592,78 @@
         <v>53</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="H26">
         <f t="shared" si="14"/>
-        <v>0.3</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I26">
         <f t="shared" si="15"/>
-        <v>10.816666666666666</v>
+        <v>10.316666666666666</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>10:49</v>
+        <v>10:19</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
-        <v>14:2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14:12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H27">
         <f t="shared" si="14"/>
-        <v>0.46666666666666667</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="I27">
         <f t="shared" si="15"/>
-        <v>11.283333333333333</v>
+        <v>11.133333333333333</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>11:17</v>
+        <v>11:7</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="2"/>
-        <v>14:36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14:46</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1614,37 +1671,41 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="F28">
-        <v>49</v>
+        <f>60+22</f>
+        <v>82</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="H28">
         <f t="shared" si="14"/>
-        <v>0.81666666666666665</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="I28">
         <f t="shared" si="15"/>
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>12:5</v>
+        <v>12:30</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="2"/>
-        <v>15:10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+        <v>15:20</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1652,38 +1713,44 @@
         <v>41</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="F29">
-        <f>60+22</f>
-        <v>82</v>
+        <f>60+15</f>
+        <v>75</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="H29">
         <f t="shared" si="14"/>
-        <v>1.3666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="I29">
         <f t="shared" si="15"/>
-        <v>13.466666666666667</v>
+        <v>13.75</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>13:28</v>
+        <v>13:45</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
-        <v>15:43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>15:54</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.58958333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1691,41 +1758,40 @@
         <v>42</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="F30">
-        <f>60+15</f>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H30">
         <f t="shared" si="14"/>
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="I30">
         <f t="shared" si="15"/>
-        <v>14.716666666666667</v>
+        <v>14.6</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>14:43</v>
+        <v>14:36</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="2"/>
-        <v>16:17</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.6430555555555556</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>16:28</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.65833333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1733,37 +1799,40 @@
         <v>43</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="F31">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="H31">
         <f t="shared" si="14"/>
-        <v>0.85</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I31">
         <f t="shared" si="15"/>
-        <v>15.566666666666666</v>
+        <v>15.133333333333333</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>15:34</v>
+        <v>15:7</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="2"/>
-        <v>16:51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <v>17:2</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.69305555555555554</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1771,37 +1840,40 @@
         <v>44</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="F32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>966</v>
+        <v>938</v>
       </c>
       <c r="H32">
         <f t="shared" si="14"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I32">
         <f t="shared" si="15"/>
-        <v>16.100000000000001</v>
+        <v>15.633333333333333</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>16:6</v>
+        <v>15:38</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="2"/>
-        <v>17:24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <v>17:36</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.72777777777777775</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
@@ -1809,113 +1881,120 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H33">
         <f t="shared" si="14"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f t="shared" si="15"/>
-        <v>16.600000000000001</v>
+        <v>16.633333333333333</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>16:36</v>
+        <v>16:38</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="2"/>
-        <v>17:58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <v>18:10</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.76944444444444438</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>998</v>
       </c>
       <c r="H34">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <f t="shared" si="15"/>
-        <v>17.600000000000001</v>
+        <v>16.633333333333333</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>17:36</v>
+        <v>16:38</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="2"/>
-        <v>18:32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <v>18:45</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.81180555555555556</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>1056</v>
+        <v>1022</v>
       </c>
       <c r="H35">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I35">
         <f t="shared" si="15"/>
-        <v>17.600000000000001</v>
+        <v>17.033333333333335</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>17:36</v>
+        <v>17:2</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
-        <v>19:6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+        <v>19:19</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1923,75 +2002,81 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="H36">
         <f t="shared" si="14"/>
-        <v>0.4</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I36">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>18:0</v>
+        <v>17:53</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
-        <v>19:39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+        <v>19:53</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="F37">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>1132</v>
+        <v>1109</v>
       </c>
       <c r="H37">
         <f t="shared" si="14"/>
-        <v>0.8666666666666667</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I37">
         <f t="shared" si="15"/>
-        <v>18.866666666666667</v>
+        <v>18.483333333333334</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>18:52</v>
+        <v>18:29</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
-        <v>20:13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+        <v>20:27</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.86597222222222225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -1999,75 +2084,81 @@
         <v>11</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="F38">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>1167</v>
+        <v>1125</v>
       </c>
       <c r="H38">
         <f t="shared" si="14"/>
-        <v>0.58333333333333337</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I38">
         <f t="shared" si="15"/>
-        <v>19.45</v>
+        <v>18.75</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>19:27</v>
+        <v>18:45</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
-        <v>20:47</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+        <v>21:1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>1183</v>
+        <v>1157</v>
       </c>
       <c r="H39">
         <f t="shared" si="14"/>
-        <v>0.26666666666666666</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I39">
         <f t="shared" si="15"/>
-        <v>19.716666666666665</v>
+        <v>19.283333333333335</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>19:42</v>
+        <v>19:17</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
-        <v>21:20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+        <v>21:35</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2075,113 +2166,113 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="F40">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>1215</v>
+        <v>1171</v>
       </c>
       <c r="H40">
         <f t="shared" si="14"/>
-        <v>0.53333333333333333</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I40">
         <f t="shared" si="15"/>
-        <v>20.25</v>
+        <v>19.516666666666666</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>20:15</v>
+        <v>19:30</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
-        <v>21:54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+        <v>22:9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>1229</v>
+        <v>1183</v>
       </c>
       <c r="H41">
         <f t="shared" si="14"/>
-        <v>0.23333333333333334</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
         <f t="shared" si="15"/>
-        <v>20.483333333333334</v>
+        <v>19.716666666666665</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>20:29</v>
+        <v>19:42</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>22:28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+        <v>22:43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>1241</v>
+        <v>1211</v>
       </c>
       <c r="H42">
         <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I42">
         <f t="shared" si="15"/>
-        <v>20.683333333333334</v>
+        <v>20.183333333333334</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>20:41</v>
+        <v>20:11</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
-        <v>23:2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23:17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
@@ -2189,75 +2280,78 @@
         <v>13</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="F43">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>1269</v>
+        <v>1224</v>
       </c>
       <c r="H43">
         <f t="shared" si="14"/>
-        <v>0.46666666666666667</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I43">
         <f t="shared" si="15"/>
-        <v>21.15</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>21:8</v>
+        <v>20:23</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
-        <v>23:35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+        <v>23:51</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>1282</v>
+        <v>1254</v>
       </c>
       <c r="H44">
         <f t="shared" si="14"/>
-        <v>0.21666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I44">
         <f t="shared" si="15"/>
-        <v>21.366666666666667</v>
+        <v>20.9</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>21:22</v>
+        <v>20:53</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
-        <v>24:9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+        <v>24:25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
@@ -2265,75 +2359,76 @@
         <v>14</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>1312</v>
+        <v>1286</v>
       </c>
       <c r="H45">
         <f t="shared" si="14"/>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I45">
         <f t="shared" si="15"/>
-        <v>21.866666666666667</v>
+        <v>21.433333333333334</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>21:52</v>
+        <v>21:26</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
-        <v>24:43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+        <v>25:0</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="F46">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>1344</v>
+        <v>1317</v>
       </c>
       <c r="H46">
         <f t="shared" si="14"/>
-        <v>0.53333333333333333</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="I46">
         <f t="shared" si="15"/>
-        <v>22.4</v>
+        <v>21.95</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>22:23</v>
+        <v>21:57</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
-        <v>25:16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+        <v>25:34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
@@ -2341,72 +2436,72 @@
         <v>15</v>
       </c>
       <c r="D47">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47">
         <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="F47">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>1375</v>
+        <v>1330</v>
       </c>
       <c r="H47">
         <f t="shared" si="14"/>
-        <v>0.51666666666666672</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I47">
         <f t="shared" si="15"/>
-        <v>22.916666666666668</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="J47" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>22:55</v>
+        <v>22:10</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
-        <v>25:50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+        <v>26:8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48">
         <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>1388</v>
+        <v>1340</v>
       </c>
       <c r="H48">
         <f t="shared" si="14"/>
-        <v>0.21666666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I48">
         <f t="shared" si="15"/>
-        <v>23.133333333333333</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="J48" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>23:7</v>
+        <v>22:19</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
-        <v>26:24</v>
+        <v>26:42</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2414,37 +2509,37 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49">
         <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>1398</v>
+        <v>1358</v>
       </c>
       <c r="H49">
         <f t="shared" si="14"/>
-        <v>0.16666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="I49">
         <f t="shared" si="15"/>
-        <v>23.3</v>
+        <v>22.633333333333333</v>
       </c>
       <c r="J49" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>23:18</v>
+        <v>22:38</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
-        <v>26:57</v>
+        <v>27:16</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2455,34 +2550,34 @@
         <v>16</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50">
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F50">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>1416</v>
+        <v>1366</v>
       </c>
       <c r="H50">
         <f t="shared" si="14"/>
-        <v>0.3</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I50">
         <f t="shared" si="15"/>
-        <v>23.6</v>
+        <v>22.766666666666666</v>
       </c>
       <c r="J50" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>23:36</v>
+        <v>22:45</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
-        <v>27:31</v>
+        <v>27:50</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2490,37 +2585,37 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E51">
         <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>1424</v>
+        <v>1392</v>
       </c>
       <c r="H51">
         <f t="shared" si="14"/>
-        <v>0.13333333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="I51">
         <f t="shared" si="15"/>
-        <v>23.733333333333334</v>
+        <v>23.2</v>
       </c>
       <c r="J51" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>23:44</v>
+        <v>23:12</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v>28:5</v>
+        <v>28:24</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2531,34 +2626,34 @@
         <v>17</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E52">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="F52">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="H52">
         <f t="shared" si="14"/>
-        <v>0.43333333333333335</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="I52">
         <f t="shared" si="15"/>
-        <v>24.166666666666668</v>
+        <v>23.816666666666666</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>24:10</v>
+        <v>23:49</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
-        <v>28:39</v>
+        <v>28:58</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2566,37 +2661,37 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E53">
         <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="F53">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>1487</v>
+        <v>1458</v>
       </c>
       <c r="H53">
         <f t="shared" si="14"/>
-        <v>0.6166666666666667</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="I53">
         <f t="shared" si="15"/>
-        <v>24.783333333333335</v>
+        <v>24.3</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>24:47</v>
+        <v>24:18</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
-        <v>29:12</v>
+        <v>29:32</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2604,37 +2699,37 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54">
         <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="F54">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="H54">
         <f t="shared" si="14"/>
-        <v>0.48333333333333334</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I54">
         <f t="shared" si="15"/>
-        <v>25.266666666666666</v>
+        <v>25.233333333333334</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>25:15</v>
+        <v>25:14</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
-        <v>29:46</v>
+        <v>30:6</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2642,37 +2737,37 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E55">
         <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="F55">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>1572</v>
+        <v>1522</v>
       </c>
       <c r="H55">
         <f t="shared" si="14"/>
-        <v>0.93333333333333335</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I55">
         <f t="shared" si="15"/>
-        <v>26.2</v>
+        <v>25.366666666666667</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>26:12</v>
+        <v>25:22</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>30:20</v>
+        <v>30:40</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -2680,37 +2775,37 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>1580</v>
+        <v>1529</v>
       </c>
       <c r="H56">
         <f t="shared" si="14"/>
-        <v>0.13333333333333333</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I56">
         <f t="shared" si="15"/>
-        <v>26.333333333333332</v>
+        <v>25.483333333333334</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>26:19</v>
+        <v>25:29</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
-        <v>30:53</v>
+        <v>31:15</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -2718,37 +2813,37 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E57">
         <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>1587</v>
+        <v>1542</v>
       </c>
       <c r="H57">
         <f t="shared" si="14"/>
-        <v>0.11666666666666667</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I57">
         <f t="shared" si="15"/>
-        <v>26.45</v>
+        <v>25.7</v>
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>26:27</v>
+        <v>25:42</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
-        <v>31:27</v>
+        <v>31:49</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -2756,37 +2851,37 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E58">
         <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1567</v>
       </c>
       <c r="H58">
         <f t="shared" si="14"/>
-        <v>0.21666666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I58">
         <f t="shared" si="15"/>
-        <v>26.666666666666668</v>
+        <v>26.116666666666667</v>
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>26:40</v>
+        <v>26:7</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
-        <v>32:1</v>
+        <v>32:23</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -2797,34 +2892,34 @@
         <v>20</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E59">
         <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="F59">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>1625</v>
+        <v>1581</v>
       </c>
       <c r="H59">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="I59">
         <f t="shared" si="15"/>
-        <v>27.083333333333332</v>
+        <v>26.35</v>
       </c>
       <c r="J59" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>27:4</v>
+        <v>26:21</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
-        <v>32:35</v>
+        <v>32:57</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -2832,37 +2927,37 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E60">
         <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="H60">
         <f t="shared" si="14"/>
-        <v>0.23333333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="I60">
         <f t="shared" si="15"/>
-        <v>27.316666666666666</v>
+        <v>27.05</v>
       </c>
       <c r="J60" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>27:19</v>
+        <v>27:3</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
-        <v>33:8</v>
+        <v>33:31</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -2873,34 +2968,34 @@
         <v>21</v>
       </c>
       <c r="D61">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="F61">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>1681</v>
+        <v>1648</v>
       </c>
       <c r="H61">
         <f t="shared" si="14"/>
-        <v>0.7</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I61">
         <f t="shared" si="15"/>
-        <v>28.016666666666666</v>
+        <v>27.466666666666665</v>
       </c>
       <c r="J61" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>28:0</v>
+        <v>27:27</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>33:42</v>
+        <v>34:5</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -2908,37 +3003,37 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E62">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>1706</v>
+        <v>1668</v>
       </c>
       <c r="H62">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I62">
         <f t="shared" si="15"/>
-        <v>28.433333333333334</v>
+        <v>27.8</v>
       </c>
       <c r="J62" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>28:26</v>
+        <v>27:48</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
-        <v>34:16</v>
+        <v>34:39</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -2949,34 +3044,34 @@
         <v>22</v>
       </c>
       <c r="D63">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E63">
         <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="F63">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>1726</v>
+        <v>1681</v>
       </c>
       <c r="H63">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I63">
         <f t="shared" si="15"/>
-        <v>28.766666666666666</v>
+        <v>28.016666666666666</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>28:45</v>
+        <v>28:0</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
-        <v>34:49</v>
+        <v>35:13</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -2984,37 +3079,37 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E64">
         <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="F64">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>1739</v>
+        <v>1701</v>
       </c>
       <c r="H64">
         <f t="shared" si="14"/>
-        <v>0.21666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I64">
         <f t="shared" si="15"/>
-        <v>28.983333333333334</v>
+        <v>28.35</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>28:59</v>
+        <v>28:21</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
-        <v>35:23</v>
+        <v>35:47</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -3025,7 +3120,7 @@
         <v>23</v>
       </c>
       <c r="D65">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E65">
         <f t="shared" si="13"/>
@@ -3036,7 +3131,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>1759</v>
+        <v>1721</v>
       </c>
       <c r="H65">
         <f t="shared" si="14"/>
@@ -3044,15 +3139,15 @@
       </c>
       <c r="I65">
         <f t="shared" si="15"/>
-        <v>29.316666666666666</v>
+        <v>28.683333333333334</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>29:19</v>
+        <v>28:41</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
-        <v>35:57</v>
+        <v>36:21</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3060,10 +3155,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E66">
         <f t="shared" si="13"/>
@@ -3074,7 +3169,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>1779</v>
+        <v>1741</v>
       </c>
       <c r="H66">
         <f t="shared" si="14"/>
@@ -3082,15 +3177,15 @@
       </c>
       <c r="I66">
         <f t="shared" si="15"/>
-        <v>29.65</v>
+        <v>29.016666666666666</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>29:38</v>
+        <v>29:0</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="2"/>
-        <v>36:31</v>
+        <f t="shared" ref="K66:K89" si="17">INT($A$2*B66)&amp;":"&amp;TEXT(INT(($A$2*B66-INT($A$2*B66))*60),0)</f>
+        <v>36:55</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3098,10 +3193,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <f t="shared" si="13"/>
@@ -3112,7 +3207,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>1799</v>
+        <v>1761</v>
       </c>
       <c r="H67">
         <f t="shared" si="14"/>
@@ -3120,15 +3215,15 @@
       </c>
       <c r="I67">
         <f t="shared" si="15"/>
-        <v>29.983333333333334</v>
+        <v>29.35</v>
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>29:59</v>
+        <v>29:21</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K90" si="17">INT($A$2*B67)&amp;":"&amp;TEXT(INT(($A$2*B67-INT($A$2*B67))*60),0)</f>
-        <v>37:4</v>
+        <f t="shared" si="17"/>
+        <v>37:30</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -3139,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="D68">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E68">
         <f t="shared" si="13"/>
@@ -3149,8 +3244,8 @@
         <v>20</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G90" si="18">F68+G67</f>
-        <v>1819</v>
+        <f t="shared" ref="G68:G89" si="18">F68+G67</f>
+        <v>1781</v>
       </c>
       <c r="H68">
         <f t="shared" si="14"/>
@@ -3158,15 +3253,15 @@
       </c>
       <c r="I68">
         <f t="shared" si="15"/>
-        <v>30.316666666666666</v>
+        <v>29.683333333333334</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>30:19</v>
+        <v>29:41</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="17"/>
-        <v>37:38</v>
+        <v>38:4</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -3174,37 +3269,37 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E69">
         <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="F69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <f t="shared" si="18"/>
-        <v>1839</v>
+        <v>1791</v>
       </c>
       <c r="H69">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I69">
         <f t="shared" si="15"/>
-        <v>30.65</v>
+        <v>29.85</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>30:38</v>
+        <v>29:51</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="17"/>
-        <v>38:12</v>
+        <v>38:38</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -3212,37 +3307,37 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E70">
         <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70">
         <f t="shared" si="18"/>
-        <v>1849</v>
+        <v>1803</v>
       </c>
       <c r="H70">
         <f t="shared" si="14"/>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="I70">
         <f t="shared" si="15"/>
-        <v>30.816666666666666</v>
+        <v>30.05</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>30:49</v>
+        <v>30:3</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="17"/>
-        <v>38:45</v>
+        <v>39:12</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
@@ -3250,37 +3345,37 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E71">
         <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G71">
         <f t="shared" si="18"/>
-        <v>1861</v>
+        <v>1826</v>
       </c>
       <c r="H71">
         <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="I71">
         <f t="shared" si="15"/>
-        <v>31.016666666666666</v>
+        <v>30.433333333333334</v>
       </c>
       <c r="J71" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>31:0</v>
+        <v>30:26</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="17"/>
-        <v>39:19</v>
+        <v>39:46</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3288,37 +3383,37 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E72">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="F72">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G72">
         <f t="shared" si="18"/>
-        <v>1884</v>
+        <v>1846</v>
       </c>
       <c r="H72">
         <f t="shared" si="14"/>
-        <v>0.38333333333333336</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I72">
         <f t="shared" si="15"/>
-        <v>31.4</v>
+        <v>30.766666666666666</v>
       </c>
       <c r="J72" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>31:23</v>
+        <v>30:45</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="17"/>
-        <v>39:53</v>
+        <v>40:20</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -3326,37 +3421,37 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E73">
         <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G73">
         <f t="shared" si="18"/>
-        <v>1904</v>
+        <v>1871</v>
       </c>
       <c r="H73">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I73">
         <f t="shared" si="15"/>
-        <v>31.733333333333334</v>
+        <v>31.183333333333334</v>
       </c>
       <c r="J73" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>31:44</v>
+        <v>31:11</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="17"/>
-        <v>40:26</v>
+        <v>40:54</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -3364,37 +3459,37 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E74">
         <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="F74">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G74">
         <f t="shared" si="18"/>
-        <v>1929</v>
+        <v>1891</v>
       </c>
       <c r="H74">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I74">
         <f t="shared" si="15"/>
-        <v>32.15</v>
+        <v>31.516666666666666</v>
       </c>
       <c r="J74" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>32:8</v>
+        <v>31:30</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="17"/>
-        <v>41:0</v>
+        <v>41:28</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
@@ -3402,37 +3497,37 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E75">
         <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G75">
         <f t="shared" si="18"/>
-        <v>1949</v>
+        <v>1918</v>
       </c>
       <c r="H75">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="I75">
         <f t="shared" si="15"/>
-        <v>32.483333333333334</v>
+        <v>31.966666666666665</v>
       </c>
       <c r="J75" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>32:29</v>
+        <v>31:57</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="17"/>
-        <v>41:34</v>
+        <v>42:2</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -3440,37 +3535,37 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E76">
         <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="F76">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G76">
         <f t="shared" si="18"/>
-        <v>1976</v>
+        <v>1943</v>
       </c>
       <c r="H76">
         <f t="shared" si="14"/>
-        <v>0.45</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I76">
         <f t="shared" si="15"/>
-        <v>32.93333333333333</v>
+        <v>32.383333333333333</v>
       </c>
       <c r="J76" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>32:55</v>
+        <v>32:23</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="17"/>
-        <v>42:8</v>
+        <v>42:36</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -3478,37 +3573,37 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E77">
         <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="F77">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <f t="shared" si="18"/>
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="H77">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
+        <v>0.6</v>
       </c>
       <c r="I77">
         <f t="shared" si="15"/>
-        <v>33.35</v>
+        <v>32.983333333333334</v>
       </c>
       <c r="J77" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>33:21</v>
+        <v>32:59</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="17"/>
-        <v>42:41</v>
+        <v>43:10</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
@@ -3516,37 +3611,37 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E78">
         <f t="shared" si="13"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F78">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <f t="shared" si="18"/>
-        <v>2037</v>
+        <v>1979</v>
       </c>
       <c r="H78">
         <f t="shared" si="14"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <f t="shared" si="15"/>
-        <v>33.950000000000003</v>
+        <v>32.983333333333334</v>
       </c>
       <c r="J78" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>33:57</v>
+        <v>32:59</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="17"/>
-        <v>43:15</v>
+        <v>43:45</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
@@ -3554,37 +3649,37 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D79">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E79">
         <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G79">
         <f t="shared" si="18"/>
-        <v>2037</v>
+        <v>1992</v>
       </c>
       <c r="H79">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="I79">
         <f t="shared" si="15"/>
-        <v>33.950000000000003</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>33:57</v>
+        <v>33:12</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="17"/>
-        <v>43:49</v>
+        <v>44:19</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -3592,37 +3687,37 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E80">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="F80">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G80">
         <f t="shared" si="18"/>
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="H80">
         <f t="shared" si="14"/>
-        <v>0.21666666666666667</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="I80">
         <f t="shared" si="15"/>
-        <v>34.166666666666664</v>
+        <v>34.083333333333336</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>34:9</v>
+        <v>34:5</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="17"/>
-        <v>44:22</v>
+        <v>44:53</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
@@ -3630,37 +3725,37 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D81">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E81">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="F81">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G81">
         <f t="shared" si="18"/>
-        <v>2103</v>
+        <v>2060</v>
       </c>
       <c r="H81">
         <f t="shared" si="14"/>
-        <v>0.8833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="I81">
         <f t="shared" si="15"/>
-        <v>35.049999999999997</v>
+        <v>34.333333333333336</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>35:2</v>
+        <v>34:20</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="17"/>
-        <v>44:56</v>
+        <v>45:27</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
@@ -3668,37 +3763,37 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:E90" si="19">IF(NOT(OR(C82="Agenda",C82="Final",D82=D81)),E81+1,E81+0)</f>
+        <f t="shared" ref="E82:E89" si="19">IF(NOT(OR(C82="Agenda",C82="Final",D82=D81)),E81+1,E81+0)</f>
         <v>69</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G82">
         <f t="shared" si="18"/>
-        <v>2118</v>
+        <v>2068</v>
       </c>
       <c r="H82">
-        <f t="shared" si="14"/>
-        <v>0.25</v>
+        <f t="shared" ref="H82:H89" si="20">F82/60</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I82">
-        <f t="shared" si="15"/>
-        <v>35.299999999999997</v>
+        <f t="shared" ref="I82:I89" si="21">G82/60</f>
+        <v>34.466666666666669</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>35:17</v>
+        <f t="shared" ref="J82:J89" si="22">INT(I82)&amp;":"&amp;INT((I82-INT(I82))*60)</f>
+        <v>34:28</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="17"/>
-        <v>45:30</v>
+        <v>46:1</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
@@ -3706,37 +3801,37 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D83">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E83">
         <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <f t="shared" si="18"/>
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H83:H90" si="20">F83/60</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="20"/>
+        <v>0.75</v>
       </c>
       <c r="I83">
-        <f t="shared" ref="I83:I90" si="21">G83/60</f>
-        <v>35.43333333333333</v>
+        <f t="shared" si="21"/>
+        <v>35.216666666666669</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" ref="J83:J90" si="22">INT(I83)&amp;":"&amp;INT((I83-INT(I83))*60)</f>
-        <v>35:25</v>
+        <f t="shared" si="22"/>
+        <v>35:13</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="17"/>
-        <v>46:4</v>
+        <v>46:35</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
@@ -3747,34 +3842,34 @@
         <v>29</v>
       </c>
       <c r="D84">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E84">
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="F84">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <f t="shared" si="18"/>
-        <v>2171</v>
+        <v>2130</v>
       </c>
       <c r="H84">
         <f t="shared" si="20"/>
-        <v>0.75</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="I84">
         <f t="shared" si="21"/>
-        <v>36.18333333333333</v>
+        <v>35.5</v>
       </c>
       <c r="J84" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36:10</v>
+        <v>35:30</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="17"/>
-        <v>46:37</v>
+        <v>47:9</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
@@ -3782,37 +3877,37 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E85">
         <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="F85">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G85">
         <f t="shared" si="18"/>
-        <v>2188</v>
+        <v>2141</v>
       </c>
       <c r="H85">
         <f t="shared" si="20"/>
-        <v>0.28333333333333333</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="I85">
         <f t="shared" si="21"/>
-        <v>36.466666666666669</v>
+        <v>35.68333333333333</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36:28</v>
+        <v>35:40</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="17"/>
-        <v>47:11</v>
+        <v>47:43</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
@@ -3820,37 +3915,37 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E86">
         <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="F86">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G86">
         <f t="shared" si="18"/>
-        <v>2199</v>
+        <v>2149</v>
       </c>
       <c r="H86">
         <f t="shared" si="20"/>
-        <v>0.18333333333333332</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I86">
         <f t="shared" si="21"/>
-        <v>36.65</v>
+        <v>35.81666666666667</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36:38</v>
+        <v>35:49</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="17"/>
-        <v>47:45</v>
+        <v>48:17</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
@@ -3858,37 +3953,37 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E87">
         <f t="shared" si="19"/>
         <v>74</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <f t="shared" si="18"/>
-        <v>2207</v>
+        <v>2159</v>
       </c>
       <c r="H87">
         <f t="shared" si="20"/>
-        <v>0.13333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I87">
         <f t="shared" si="21"/>
-        <v>36.783333333333331</v>
+        <v>35.983333333333334</v>
       </c>
       <c r="J87" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36:46</v>
+        <v>35:59</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="17"/>
-        <v>48:18</v>
+        <v>48:51</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
@@ -3896,10 +3991,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E88">
         <f t="shared" si="19"/>
@@ -3910,7 +4005,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="18"/>
-        <v>2217</v>
+        <v>2169</v>
       </c>
       <c r="H88">
         <f t="shared" si="20"/>
@@ -3918,15 +4013,15 @@
       </c>
       <c r="I88">
         <f t="shared" si="21"/>
-        <v>36.950000000000003</v>
+        <v>36.15</v>
       </c>
       <c r="J88" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>36:57</v>
+        <v>36:8</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="17"/>
-        <v>48:52</v>
+        <v>49:25</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
@@ -3934,21 +4029,21 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E89">
         <f t="shared" si="19"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <v>10</v>
       </c>
       <c r="G89">
         <f t="shared" si="18"/>
-        <v>2227</v>
+        <v>2179</v>
       </c>
       <c r="H89">
         <f t="shared" si="20"/>
@@ -3956,54 +4051,19 @@
       </c>
       <c r="I89">
         <f t="shared" si="21"/>
-        <v>37.116666666666667</v>
+        <v>36.31666666666667</v>
       </c>
       <c r="J89" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>37:7</v>
+        <v>36:19</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="17"/>
-        <v>49:26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90">
-        <v>81</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="19"/>
-        <v>76</v>
-      </c>
-      <c r="F90">
-        <v>10</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="18"/>
-        <v>2237</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="20"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="21"/>
-        <v>37.283333333333331</v>
-      </c>
-      <c r="J90" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>37:16</v>
-      </c>
-      <c r="K90" t="str">
-        <f t="shared" si="17"/>
         <v>50:0</v>
       </c>
+    </row>
+    <row r="1048575" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N1048575" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Apresentação/Lista slides e tempo.xlsx
+++ b/Apresentação/Lista slides e tempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\Mestrado\Dissertação\Apresentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITA\Dissertacao\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57432D5F-3312-4A7B-9766-8543C7938193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B984CC-E15B-4449-8516-6933A02082C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -253,6 +253,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1048575"/>
+  <dimension ref="A1:P1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +547,7 @@
     <col min="10" max="10" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>30</v>
       </c>
@@ -572,7 +573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>50/COUNT(B2:B89)</f>
         <v>0.56818181818181823</v>
@@ -614,7 +615,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2*60</f>
         <v>34.090909090909093</v>
@@ -648,11 +649,11 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J16" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
+        <f t="shared" ref="J3:J66" si="1">INT(I3)&amp;":"&amp;INT((I3-INT(I3))*60)</f>
         <v>0:36</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K65" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
+        <f t="shared" ref="K3:K66" si="2">INT($A$2*B3)&amp;":"&amp;TEXT(INT(($A$2*B3-INT($A$2*B3))*60),0)</f>
         <v>1:8</v>
       </c>
       <c r="L3" s="4"/>
@@ -663,7 +664,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -693,7 +694,7 @@
         <v>1.35</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:J7" si="6">INT(I4)&amp;":"&amp;INT((I4-INT(I4))*60)</f>
+        <f t="shared" si="1"/>
         <v>1:21</v>
       </c>
       <c r="K4" t="str">
@@ -707,8 +708,12 @@
       <c r="N4" s="4">
         <v>2.361111111111111E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="4">
+        <f>N4-N3</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -738,7 +743,7 @@
         <v>1.4333333333333333</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1:26</v>
       </c>
       <c r="K5" t="str">
@@ -752,8 +757,12 @@
       <c r="N5" s="4">
         <v>7.2222222222222229E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O63" si="6">N5-N4</f>
+        <v>4.8611111111111119E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -783,7 +792,7 @@
         <v>1.5166666666666666</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" ref="J6" si="9">INT(I6)&amp;":"&amp;INT((I6-INT(I6))*60)</f>
+        <f t="shared" si="1"/>
         <v>1:31</v>
       </c>
       <c r="K6" t="str">
@@ -797,8 +806,12 @@
       <c r="N6" s="4">
         <v>7.7083333333333337E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="4">
+        <f t="shared" si="6"/>
+        <v>4.8611111111111077E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -828,7 +841,7 @@
         <v>1.75</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1:45</v>
       </c>
       <c r="K7" t="str">
@@ -838,8 +851,12 @@
       <c r="N7" s="4">
         <v>8.1250000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="4">
+        <f t="shared" si="6"/>
+        <v>4.1666666666666657E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -883,8 +900,12 @@
       <c r="N8" s="4">
         <v>8.819444444444445E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="4">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444475E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -926,8 +947,12 @@
       <c r="N9" s="4">
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="4">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555497E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -967,8 +992,12 @@
       <c r="N10" s="4">
         <v>0.10208333333333335</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="4">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333454E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1008,8 +1037,12 @@
       <c r="N11" s="4">
         <v>0.10902777777777778</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="4">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444337E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1053,8 +1086,12 @@
       <c r="N12" s="4">
         <v>0.13263888888888889</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="4">
+        <f t="shared" si="6"/>
+        <v>2.361111111111111E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1095,8 +1132,12 @@
       <c r="N13" s="4">
         <v>0.19166666666666665</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="4">
+        <f t="shared" si="6"/>
+        <v>5.9027777777777762E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1126,7 +1167,7 @@
         <v>5.5</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>INT(I14)&amp;":"&amp;INT((I14-INT(I14))*60)</f>
+        <f t="shared" si="1"/>
         <v>5:30</v>
       </c>
       <c r="K14" t="str">
@@ -1137,8 +1178,12 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.19166666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1179,8 +1224,12 @@
       <c r="N15" s="4">
         <v>0.2673611111111111</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1220,8 +1269,12 @@
       <c r="N16" s="4">
         <v>0.29305555555555557</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="4">
+        <f t="shared" si="6"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1243,15 +1296,15 @@
         <v>393</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="10">F17/60</f>
+        <f t="shared" ref="H17:H18" si="9">F17/60</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I18" si="11">G17/60</f>
+        <f t="shared" ref="I17:I18" si="10">G17/60</f>
         <v>6.55</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" ref="J17:J18" si="12">INT(I17)&amp;":"&amp;INT((I17-INT(I17))*60)</f>
+        <f t="shared" si="1"/>
         <v>6:33</v>
       </c>
       <c r="K17" t="str">
@@ -1261,8 +1314,12 @@
       <c r="N17" s="4">
         <v>0.31597222222222221</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="4">
+        <f t="shared" si="6"/>
+        <v>2.2916666666666641E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1273,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E81" si="13">IF(NOT(OR(C18="Agenda",C18="Final",D18=D17)),E17+1,E17+0)</f>
+        <f t="shared" ref="E18:E81" si="11">IF(NOT(OR(C18="Agenda",C18="Final",D18=D17)),E17+1,E17+0)</f>
         <v>8</v>
       </c>
       <c r="F18">
@@ -1284,23 +1341,30 @@
         <v>393</v>
       </c>
       <c r="H18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="11"/>
         <v>6.55</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>6:33</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
         <v>9:39</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.31597222222222221</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.30624999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1311,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="F19">
@@ -1322,15 +1386,15 @@
         <v>468</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H81" si="14">F19/60</f>
+        <f t="shared" ref="H19:H81" si="12">F19/60</f>
         <v>1.25</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I81" si="15">G19/60</f>
+        <f t="shared" ref="I19:I81" si="13">G19/60</f>
         <v>7.8</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" ref="J19:J81" si="16">INT(I19)&amp;":"&amp;INT((I19-INT(I19))*60)</f>
+        <f t="shared" si="1"/>
         <v>7:48</v>
       </c>
       <c r="K19" t="str">
@@ -1340,8 +1404,13 @@
       <c r="N19" s="4">
         <v>0.32083333333333336</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="4">
+        <f t="shared" si="6"/>
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1352,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="E20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F20">
@@ -1363,15 +1432,15 @@
         <v>498</v>
       </c>
       <c r="H20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="I20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>8:18</v>
       </c>
       <c r="K20" t="str">
@@ -1381,8 +1450,12 @@
       <c r="N20" s="4">
         <v>0.37222222222222223</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="4">
+        <f t="shared" si="6"/>
+        <v>5.1388888888888873E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1393,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F21">
@@ -1404,15 +1477,15 @@
         <v>498</v>
       </c>
       <c r="H21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>8:18</v>
       </c>
       <c r="K21" t="str">
@@ -1425,8 +1498,15 @@
       <c r="N21" s="4">
         <v>0.41180555555555554</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="4">
+        <f t="shared" si="6"/>
+        <v>3.9583333333333304E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1437,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="E22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="F22">
@@ -1448,15 +1528,15 @@
         <v>512</v>
       </c>
       <c r="H22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>8.5333333333333332</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>8:32</v>
       </c>
       <c r="K22" t="str">
@@ -1466,8 +1546,12 @@
       <c r="N22" s="4">
         <v>0.42708333333333331</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5277777777777779E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1478,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="F23">
@@ -1489,15 +1573,15 @@
         <v>546</v>
       </c>
       <c r="H23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="I23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.1</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>9:5</v>
       </c>
       <c r="K23" t="str">
@@ -1507,8 +1591,12 @@
       <c r="N23" s="4">
         <v>0.4458333333333333</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="4">
+        <f t="shared" si="6"/>
+        <v>1.8749999999999989E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1519,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="E24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="F24">
@@ -1530,23 +1618,27 @@
         <v>573</v>
       </c>
       <c r="H24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.45</v>
       </c>
       <c r="I24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.5500000000000007</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>9:33</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
         <v>13:4</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.4458333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1557,7 +1649,7 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="F25">
@@ -1568,23 +1660,27 @@
         <v>591</v>
       </c>
       <c r="H25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="I25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.85</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>9:51</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
         <v>13:38</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1595,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="F26">
@@ -1606,23 +1702,27 @@
         <v>619</v>
       </c>
       <c r="H26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="I26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>10.316666666666666</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>10:19</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
         <v>14:12</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1633,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="E27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="F27">
@@ -1644,15 +1744,15 @@
         <v>668</v>
       </c>
       <c r="H27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.81666666666666665</v>
       </c>
       <c r="I27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>11.133333333333333</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>11:7</v>
       </c>
       <c r="K27" t="str">
@@ -1662,8 +1762,12 @@
       <c r="N27" s="4">
         <v>0.4909722222222222</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="4">
+        <f t="shared" si="6"/>
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1674,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="F28">
@@ -1686,15 +1790,15 @@
         <v>750</v>
       </c>
       <c r="H28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.3666666666666667</v>
       </c>
       <c r="I28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>12.5</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>12:30</v>
       </c>
       <c r="K28" t="str">
@@ -1704,8 +1808,12 @@
       <c r="N28" s="4">
         <v>0.52638888888888891</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5416666666666707E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1716,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="E29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="F29">
@@ -1728,15 +1836,15 @@
         <v>825</v>
       </c>
       <c r="H29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.25</v>
       </c>
       <c r="I29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>13.75</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>13:45</v>
       </c>
       <c r="K29" t="str">
@@ -1749,8 +1857,12 @@
       <c r="N29" s="4">
         <v>0.58958333333333335</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="4">
+        <f t="shared" si="6"/>
+        <v>6.3194444444444442E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1761,7 +1873,7 @@
         <v>22</v>
       </c>
       <c r="E30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="F30">
@@ -1772,15 +1884,15 @@
         <v>876</v>
       </c>
       <c r="H30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.85</v>
       </c>
       <c r="I30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>14.6</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>14:36</v>
       </c>
       <c r="K30" t="str">
@@ -1790,8 +1902,12 @@
       <c r="N30" s="4">
         <v>0.65833333333333333</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="4">
+        <f t="shared" si="6"/>
+        <v>6.8749999999999978E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1802,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="E31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F31">
@@ -1813,15 +1929,15 @@
         <v>908</v>
       </c>
       <c r="H31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="I31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>15.133333333333333</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>15:7</v>
       </c>
       <c r="K31" t="str">
@@ -1831,8 +1947,12 @@
       <c r="N31" s="4">
         <v>0.69305555555555554</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="4">
+        <f t="shared" si="6"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1843,7 +1963,7 @@
         <v>24</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="F32">
@@ -1854,15 +1974,15 @@
         <v>938</v>
       </c>
       <c r="H32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>15.633333333333333</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>15:38</v>
       </c>
       <c r="K32" t="str">
@@ -1872,8 +1992,12 @@
       <c r="N32" s="4">
         <v>0.72777777777777775</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="4">
+        <f t="shared" si="6"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
@@ -1884,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="E33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="F33">
@@ -1895,15 +2019,15 @@
         <v>998</v>
       </c>
       <c r="H33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>16.633333333333333</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>16:38</v>
       </c>
       <c r="K33" t="str">
@@ -1913,8 +2037,12 @@
       <c r="N33" s="4">
         <v>0.76944444444444438</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="4">
+        <f t="shared" si="6"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1925,7 +2053,7 @@
         <v>26</v>
       </c>
       <c r="E34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="F34">
@@ -1936,15 +2064,15 @@
         <v>998</v>
       </c>
       <c r="H34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>16.633333333333333</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>16:38</v>
       </c>
       <c r="K34" t="str">
@@ -1954,8 +2082,15 @@
       <c r="N34" s="4">
         <v>0.81180555555555556</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="4">
+        <f t="shared" si="6"/>
+        <v>4.2361111111111183E-2</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1966,7 +2101,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="F35">
@@ -1977,15 +2112,15 @@
         <v>1022</v>
       </c>
       <c r="H35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="I35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>17.033333333333335</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>17:2</v>
       </c>
       <c r="K35" t="str">
@@ -1993,8 +2128,12 @@
         <v>19:19</v>
       </c>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.81180555555555556</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -2005,7 +2144,7 @@
         <v>28</v>
       </c>
       <c r="E36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="F36">
@@ -2016,15 +2155,15 @@
         <v>1074</v>
       </c>
       <c r="H36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="I36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>17.899999999999999</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>17:53</v>
       </c>
       <c r="K36" t="str">
@@ -2034,8 +2173,12 @@
       <c r="N36" s="4">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="4">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
@@ -2046,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="E37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="F37">
@@ -2057,15 +2200,15 @@
         <v>1109</v>
       </c>
       <c r="H37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="I37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>18.483333333333334</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>18:29</v>
       </c>
       <c r="K37" t="str">
@@ -2075,8 +2218,12 @@
       <c r="N37" s="4">
         <v>0.86597222222222225</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="4">
+        <f t="shared" si="6"/>
+        <v>3.2638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -2087,7 +2234,7 @@
         <v>30</v>
       </c>
       <c r="E38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="F38">
@@ -2098,15 +2245,15 @@
         <v>1125</v>
       </c>
       <c r="H38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="I38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>18.75</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>18:45</v>
       </c>
       <c r="K38" t="str">
@@ -2116,8 +2263,12 @@
       <c r="N38" s="4">
         <v>0.87986111111111109</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="4">
+        <f t="shared" si="6"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
@@ -2128,7 +2279,7 @@
         <v>31</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="F39">
@@ -2139,15 +2290,15 @@
         <v>1157</v>
       </c>
       <c r="H39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="I39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>19.283333333333335</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>19:17</v>
       </c>
       <c r="K39" t="str">
@@ -2157,8 +2308,12 @@
       <c r="N39" s="4">
         <v>0.9194444444444444</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="4">
+        <f t="shared" si="6"/>
+        <v>3.9583333333333304E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2169,7 +2324,7 @@
         <v>32</v>
       </c>
       <c r="E40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="F40">
@@ -2180,23 +2335,27 @@
         <v>1171</v>
       </c>
       <c r="H40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>19.516666666666666</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>19:30</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
         <v>22:9</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
@@ -2207,7 +2366,7 @@
         <v>33</v>
       </c>
       <c r="E41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="F41">
@@ -2218,23 +2377,27 @@
         <v>1183</v>
       </c>
       <c r="H41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>19.716666666666665</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>19:42</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
         <v>22:43</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
@@ -2245,7 +2408,7 @@
         <v>34</v>
       </c>
       <c r="E42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="F42">
@@ -2256,23 +2419,27 @@
         <v>1211</v>
       </c>
       <c r="H42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="I42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>20.183333333333334</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>20:11</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
         <v>23:17</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
@@ -2283,7 +2450,7 @@
         <v>35</v>
       </c>
       <c r="E43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="F43">
@@ -2294,15 +2461,15 @@
         <v>1224</v>
       </c>
       <c r="H43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="I43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>20.399999999999999</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>20:23</v>
       </c>
       <c r="K43" t="str">
@@ -2312,8 +2479,12 @@
       <c r="N43" s="4">
         <v>0.95833333333333337</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="4">
+        <f t="shared" si="6"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
@@ -2324,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="E44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F44">
@@ -2335,23 +2506,27 @@
         <v>1254</v>
       </c>
       <c r="H44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="I44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>20.9</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>20:53</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
         <v>24:25</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
@@ -2362,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="E45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="F45">
@@ -2373,24 +2548,30 @@
         <v>1286</v>
       </c>
       <c r="H45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="I45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>21.433333333333334</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>21:26</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
         <v>25:0</v>
       </c>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="4">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="6"/>
+        <v>0.98402777777777783</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
@@ -2401,7 +2582,7 @@
         <v>38</v>
       </c>
       <c r="E46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="F46">
@@ -2412,23 +2593,30 @@
         <v>1317</v>
       </c>
       <c r="H46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.51666666666666672</v>
       </c>
       <c r="I46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>21.95</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>21:57</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
         <v>25:34</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.98402777777777783</v>
+      </c>
+      <c r="P46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
@@ -2439,7 +2627,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="F47">
@@ -2450,23 +2638,27 @@
         <v>1330</v>
       </c>
       <c r="H47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="I47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>22.166666666666668</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>22:10</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
         <v>26:8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
@@ -2477,7 +2669,7 @@
         <v>40</v>
       </c>
       <c r="E48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="F48">
@@ -2488,23 +2680,27 @@
         <v>1340</v>
       </c>
       <c r="H48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>22.333333333333332</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>22:19</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
         <v>26:42</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O48" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
@@ -2515,7 +2711,7 @@
         <v>41</v>
       </c>
       <c r="E49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="F49">
@@ -2526,23 +2722,27 @@
         <v>1358</v>
       </c>
       <c r="H49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="I49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>22.633333333333333</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>22:38</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
         <v>27:16</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O49" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>49</v>
       </c>
@@ -2553,7 +2753,7 @@
         <v>42</v>
       </c>
       <c r="E50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="F50">
@@ -2564,23 +2764,30 @@
         <v>1366</v>
       </c>
       <c r="H50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>22.766666666666666</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>22:45</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
         <v>27:50</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O50" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
@@ -2591,7 +2798,7 @@
         <v>43</v>
       </c>
       <c r="E51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="F51">
@@ -2602,23 +2809,27 @@
         <v>1392</v>
       </c>
       <c r="H51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="I51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>23:12</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
         <v>28:24</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O51" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>51</v>
       </c>
@@ -2629,7 +2840,7 @@
         <v>44</v>
       </c>
       <c r="E52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="F52">
@@ -2640,23 +2851,30 @@
         <v>1429</v>
       </c>
       <c r="H52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="I52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>23.816666666666666</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>23:49</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
         <v>28:58</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N52" s="5">
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="O52" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0444444444444445</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>52</v>
       </c>
@@ -2667,7 +2885,7 @@
         <v>45</v>
       </c>
       <c r="E53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="F53">
@@ -2678,23 +2896,27 @@
         <v>1458</v>
       </c>
       <c r="H53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.48333333333333334</v>
       </c>
       <c r="I53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>24.3</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>24:18</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
         <v>29:32</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="O53" s="4">
+        <f t="shared" si="6"/>
+        <v>-1.0444444444444445</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>53</v>
       </c>
@@ -2705,7 +2927,7 @@
         <v>46</v>
       </c>
       <c r="E54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="F54">
@@ -2716,23 +2938,30 @@
         <v>1514</v>
       </c>
       <c r="H54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="I54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>25.233333333333334</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>25:14</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
         <v>30:6</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N54" s="5">
+        <v>1.0673611111111112</v>
+      </c>
+      <c r="O54" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0673611111111112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>54</v>
       </c>
@@ -2743,7 +2972,7 @@
         <v>47</v>
       </c>
       <c r="E55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="F55">
@@ -2754,23 +2983,30 @@
         <v>1522</v>
       </c>
       <c r="H55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>25.366666666666667</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>25:22</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
         <v>30:40</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N55" s="5">
+        <v>1.09375</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="6"/>
+        <v>2.6388888888888795E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>55</v>
       </c>
@@ -2781,7 +3017,7 @@
         <v>48</v>
       </c>
       <c r="E56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="F56">
@@ -2792,23 +3028,30 @@
         <v>1529</v>
       </c>
       <c r="H56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.11666666666666667</v>
       </c>
       <c r="I56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>25.483333333333334</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>25:29</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
         <v>31:15</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N56" s="5">
+        <v>1.0986111111111112</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="6"/>
+        <v>4.8611111111112049E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56</v>
       </c>
@@ -2819,7 +3062,7 @@
         <v>49</v>
       </c>
       <c r="E57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="F57">
@@ -2830,23 +3073,30 @@
         <v>1542</v>
       </c>
       <c r="H57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="I57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>25.7</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>25:42</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
         <v>31:49</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N57" s="5">
+        <v>1.1020833333333333</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="6"/>
+        <v>3.4722222222220989E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>57</v>
       </c>
@@ -2857,7 +3107,7 @@
         <v>50</v>
       </c>
       <c r="E58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="F58">
@@ -2868,23 +3118,30 @@
         <v>1567</v>
       </c>
       <c r="H58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="I58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>26.116666666666667</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>26:7</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
         <v>32:23</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N58" s="5">
+        <v>1.1125</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>58</v>
       </c>
@@ -2895,7 +3152,7 @@
         <v>51</v>
       </c>
       <c r="E59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="F59">
@@ -2906,23 +3163,30 @@
         <v>1581</v>
       </c>
       <c r="H59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>26.35</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>26:21</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
         <v>32:57</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N59" s="5">
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="6"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>59</v>
       </c>
@@ -2933,7 +3197,7 @@
         <v>52</v>
       </c>
       <c r="E60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="F60">
@@ -2944,23 +3208,28 @@
         <v>1623</v>
       </c>
       <c r="H60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="I60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>27.05</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>27:3</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
         <v>33:31</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N60" s="5"/>
+      <c r="O60" s="4">
+        <f t="shared" si="6"/>
+        <v>-1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60</v>
       </c>
@@ -2971,7 +3240,7 @@
         <v>53</v>
       </c>
       <c r="E61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="F61">
@@ -2982,23 +3251,30 @@
         <v>1648</v>
       </c>
       <c r="H61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="I61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>27.466666666666665</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>27:27</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
         <v>34:5</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N61" s="5">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>61</v>
       </c>
@@ -3009,7 +3285,7 @@
         <v>54</v>
       </c>
       <c r="E62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="F62">
@@ -3020,23 +3296,28 @@
         <v>1668</v>
       </c>
       <c r="H62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>27.8</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>27:48</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
         <v>34:39</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N62" s="5"/>
+      <c r="O62" s="4">
+        <f t="shared" si="6"/>
+        <v>-1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>62</v>
       </c>
@@ -3047,7 +3328,7 @@
         <v>55</v>
       </c>
       <c r="E63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="F63">
@@ -3058,23 +3339,30 @@
         <v>1681</v>
       </c>
       <c r="H63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.21666666666666667</v>
       </c>
       <c r="I63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>28.016666666666666</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>28:0</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
         <v>35:13</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N63" s="5">
+        <v>1.2013888888888888</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2013888888888888</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>63</v>
       </c>
@@ -3085,7 +3373,7 @@
         <v>56</v>
       </c>
       <c r="E64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="F64">
@@ -3096,15 +3384,15 @@
         <v>1701</v>
       </c>
       <c r="H64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>28.35</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>28:21</v>
       </c>
       <c r="K64" t="str">
@@ -3112,7 +3400,7 @@
         <v>35:47</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
@@ -3123,7 +3411,7 @@
         <v>57</v>
       </c>
       <c r="E65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="F65">
@@ -3134,15 +3422,15 @@
         <v>1721</v>
       </c>
       <c r="H65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>28.683333333333334</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>28:41</v>
       </c>
       <c r="K65" t="str">
@@ -3150,7 +3438,7 @@
         <v>36:21</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
@@ -3161,7 +3449,7 @@
         <v>58</v>
       </c>
       <c r="E66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="F66">
@@ -3172,23 +3460,23 @@
         <v>1741</v>
       </c>
       <c r="H66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>29.016666666666666</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="1"/>
         <v>29:0</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K89" si="17">INT($A$2*B66)&amp;":"&amp;TEXT(INT(($A$2*B66-INT($A$2*B66))*60),0)</f>
+        <f t="shared" si="2"/>
         <v>36:55</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
@@ -3199,7 +3487,7 @@
         <v>59</v>
       </c>
       <c r="E67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="F67">
@@ -3210,23 +3498,26 @@
         <v>1761</v>
       </c>
       <c r="H67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>29.35</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J67:J89" si="14">INT(I67)&amp;":"&amp;INT((I67-INT(I67))*60)</f>
         <v>29:21</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K67:K89" si="15">INT($A$2*B67)&amp;":"&amp;TEXT(INT(($A$2*B67-INT($A$2*B67))*60),0)</f>
         <v>37:30</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="P67" s="5">
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
@@ -3237,34 +3528,34 @@
         <v>60</v>
       </c>
       <c r="E68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G89" si="18">F68+G67</f>
+        <f t="shared" ref="G68:G89" si="16">F68+G67</f>
         <v>1781</v>
       </c>
       <c r="H68">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="13"/>
+        <v>29.683333333333334</v>
+      </c>
+      <c r="J68" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I68">
+        <v>29:41</v>
+      </c>
+      <c r="K68" t="str">
         <f t="shared" si="15"/>
-        <v>29.683333333333334</v>
-      </c>
-      <c r="J68" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>29:41</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="17"/>
         <v>38:4</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
@@ -3275,34 +3566,34 @@
         <v>61</v>
       </c>
       <c r="E69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="F69">
         <v>10</v>
       </c>
       <c r="G69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1791</v>
       </c>
       <c r="H69">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="13"/>
+        <v>29.85</v>
+      </c>
+      <c r="J69" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I69">
+        <v>29:51</v>
+      </c>
+      <c r="K69" t="str">
         <f t="shared" si="15"/>
-        <v>29.85</v>
-      </c>
-      <c r="J69" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>29:51</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="17"/>
         <v>38:38</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
@@ -3313,34 +3604,34 @@
         <v>62</v>
       </c>
       <c r="E70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="F70">
         <v>12</v>
       </c>
       <c r="G70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1803</v>
       </c>
       <c r="H70">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="13"/>
+        <v>30.05</v>
+      </c>
+      <c r="J70" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.2</v>
-      </c>
-      <c r="I70">
+        <v>30:3</v>
+      </c>
+      <c r="K70" t="str">
         <f t="shared" si="15"/>
-        <v>30.05</v>
-      </c>
-      <c r="J70" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>30:3</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="17"/>
         <v>39:12</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
@@ -3351,34 +3642,34 @@
         <v>63</v>
       </c>
       <c r="E71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>59</v>
       </c>
       <c r="F71">
         <v>23</v>
       </c>
       <c r="G71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1826</v>
       </c>
       <c r="H71">
+        <f t="shared" si="12"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="13"/>
+        <v>30.433333333333334</v>
+      </c>
+      <c r="J71" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.38333333333333336</v>
-      </c>
-      <c r="I71">
+        <v>30:26</v>
+      </c>
+      <c r="K71" t="str">
         <f t="shared" si="15"/>
-        <v>30.433333333333334</v>
-      </c>
-      <c r="J71" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>30:26</v>
-      </c>
-      <c r="K71" t="str">
-        <f t="shared" si="17"/>
         <v>39:46</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
@@ -3389,34 +3680,34 @@
         <v>64</v>
       </c>
       <c r="E72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1846</v>
       </c>
       <c r="H72">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="13"/>
+        <v>30.766666666666666</v>
+      </c>
+      <c r="J72" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I72">
+        <v>30:45</v>
+      </c>
+      <c r="K72" t="str">
         <f t="shared" si="15"/>
-        <v>30.766666666666666</v>
-      </c>
-      <c r="J72" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>30:45</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="17"/>
         <v>40:20</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
@@ -3427,34 +3718,34 @@
         <v>65</v>
       </c>
       <c r="E73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="F73">
         <v>25</v>
       </c>
       <c r="G73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1871</v>
       </c>
       <c r="H73">
+        <f t="shared" si="12"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="13"/>
+        <v>31.183333333333334</v>
+      </c>
+      <c r="J73" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I73">
+        <v>31:11</v>
+      </c>
+      <c r="K73" t="str">
         <f t="shared" si="15"/>
-        <v>31.183333333333334</v>
-      </c>
-      <c r="J73" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>31:11</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" si="17"/>
         <v>40:54</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
@@ -3465,34 +3756,34 @@
         <v>66</v>
       </c>
       <c r="E74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1891</v>
       </c>
       <c r="H74">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>31.516666666666666</v>
+      </c>
+      <c r="J74" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I74">
+        <v>31:30</v>
+      </c>
+      <c r="K74" t="str">
         <f t="shared" si="15"/>
-        <v>31.516666666666666</v>
-      </c>
-      <c r="J74" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>31:30</v>
-      </c>
-      <c r="K74" t="str">
-        <f t="shared" si="17"/>
         <v>41:28</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
@@ -3503,34 +3794,34 @@
         <v>67</v>
       </c>
       <c r="E75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="F75">
         <v>27</v>
       </c>
       <c r="G75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1918</v>
       </c>
       <c r="H75">
+        <f t="shared" si="12"/>
+        <v>0.45</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>31.966666666666665</v>
+      </c>
+      <c r="J75" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.45</v>
-      </c>
-      <c r="I75">
+        <v>31:57</v>
+      </c>
+      <c r="K75" t="str">
         <f t="shared" si="15"/>
-        <v>31.966666666666665</v>
-      </c>
-      <c r="J75" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>31:57</v>
-      </c>
-      <c r="K75" t="str">
-        <f t="shared" si="17"/>
         <v>42:2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
@@ -3541,34 +3832,34 @@
         <v>68</v>
       </c>
       <c r="E76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="F76">
         <v>25</v>
       </c>
       <c r="G76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1943</v>
       </c>
       <c r="H76">
+        <f t="shared" si="12"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="13"/>
+        <v>32.383333333333333</v>
+      </c>
+      <c r="J76" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I76">
+        <v>32:23</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="15"/>
-        <v>32.383333333333333</v>
-      </c>
-      <c r="J76" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>32:23</v>
-      </c>
-      <c r="K76" t="str">
-        <f t="shared" si="17"/>
         <v>42:36</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
@@ -3579,34 +3870,34 @@
         <v>69</v>
       </c>
       <c r="E77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="F77">
         <v>36</v>
       </c>
       <c r="G77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1979</v>
       </c>
       <c r="H77">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="13"/>
+        <v>32.983333333333334</v>
+      </c>
+      <c r="J77" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.6</v>
-      </c>
-      <c r="I77">
+        <v>32:59</v>
+      </c>
+      <c r="K77" t="str">
         <f t="shared" si="15"/>
-        <v>32.983333333333334</v>
-      </c>
-      <c r="J77" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>32:59</v>
-      </c>
-      <c r="K77" t="str">
-        <f t="shared" si="17"/>
         <v>43:10</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
@@ -3617,34 +3908,34 @@
         <v>70</v>
       </c>
       <c r="E78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1979</v>
       </c>
       <c r="H78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="13"/>
+        <v>32.983333333333334</v>
+      </c>
+      <c r="J78" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I78">
+        <v>32:59</v>
+      </c>
+      <c r="K78" t="str">
         <f t="shared" si="15"/>
-        <v>32.983333333333334</v>
-      </c>
-      <c r="J78" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>32:59</v>
-      </c>
-      <c r="K78" t="str">
-        <f t="shared" si="17"/>
         <v>43:45</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
@@ -3655,34 +3946,34 @@
         <v>71</v>
       </c>
       <c r="E79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="F79">
         <v>13</v>
       </c>
       <c r="G79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1992</v>
       </c>
       <c r="H79">
+        <f t="shared" si="12"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="13"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J79" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="I79">
+        <v>33:12</v>
+      </c>
+      <c r="K79" t="str">
         <f t="shared" si="15"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="J79" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>33:12</v>
-      </c>
-      <c r="K79" t="str">
-        <f t="shared" si="17"/>
         <v>44:19</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
@@ -3693,34 +3984,34 @@
         <v>72</v>
       </c>
       <c r="E80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="F80">
         <v>53</v>
       </c>
       <c r="G80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2045</v>
       </c>
       <c r="H80">
+        <f t="shared" si="12"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="13"/>
+        <v>34.083333333333336</v>
+      </c>
+      <c r="J80" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="I80">
+        <v>34:5</v>
+      </c>
+      <c r="K80" t="str">
         <f t="shared" si="15"/>
-        <v>34.083333333333336</v>
-      </c>
-      <c r="J80" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>34:5</v>
-      </c>
-      <c r="K80" t="str">
-        <f t="shared" si="17"/>
         <v>44:53</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
@@ -3731,34 +4022,34 @@
         <v>73</v>
       </c>
       <c r="E81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="F81">
         <v>15</v>
       </c>
       <c r="G81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2060</v>
       </c>
       <c r="H81">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="13"/>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="J81" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-      <c r="I81">
+        <v>34:20</v>
+      </c>
+      <c r="K81" t="str">
         <f t="shared" si="15"/>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="J81" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>34:20</v>
-      </c>
-      <c r="K81" t="str">
-        <f t="shared" si="17"/>
         <v>45:27</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
@@ -3769,34 +4060,34 @@
         <v>74</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:E89" si="19">IF(NOT(OR(C82="Agenda",C82="Final",D82=D81)),E81+1,E81+0)</f>
+        <f t="shared" ref="E82:E89" si="17">IF(NOT(OR(C82="Agenda",C82="Final",D82=D81)),E81+1,E81+0)</f>
         <v>69</v>
       </c>
       <c r="F82">
         <v>8</v>
       </c>
       <c r="G82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2068</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:H89" si="20">F82/60</f>
+        <f t="shared" ref="H82:H89" si="18">F82/60</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82:I89" si="21">G82/60</f>
+        <f t="shared" ref="I82:I89" si="19">G82/60</f>
         <v>34.466666666666669</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" ref="J82:J89" si="22">INT(I82)&amp;":"&amp;INT((I82-INT(I82))*60)</f>
+        <f t="shared" si="14"/>
         <v>34:28</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>46:1</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
@@ -3807,34 +4098,34 @@
         <v>75</v>
       </c>
       <c r="E83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="F83">
         <v>45</v>
       </c>
       <c r="G83">
+        <f t="shared" si="16"/>
+        <v>2113</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="18"/>
-        <v>2113</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="20"/>
         <v>0.75</v>
       </c>
       <c r="I83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>35.216666666666669</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>35:13</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>46:35</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
@@ -3845,34 +4136,34 @@
         <v>76</v>
       </c>
       <c r="E84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="F84">
         <v>17</v>
       </c>
       <c r="G84">
+        <f t="shared" si="16"/>
+        <v>2130</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="18"/>
-        <v>2130</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="20"/>
         <v>0.28333333333333333</v>
       </c>
       <c r="I84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>35.5</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>35:30</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>47:9</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
@@ -3883,34 +4174,34 @@
         <v>77</v>
       </c>
       <c r="E85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="F85">
         <v>11</v>
       </c>
       <c r="G85">
+        <f t="shared" si="16"/>
+        <v>2141</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="18"/>
-        <v>2141</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="20"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="I85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>35.68333333333333</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>35:40</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>47:43</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
@@ -3921,34 +4212,34 @@
         <v>78</v>
       </c>
       <c r="E86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
       <c r="F86">
         <v>8</v>
       </c>
       <c r="G86">
+        <f t="shared" si="16"/>
+        <v>2149</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="18"/>
-        <v>2149</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="20"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>35.81666666666667</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>35:49</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>48:17</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
@@ -3959,34 +4250,34 @@
         <v>79</v>
       </c>
       <c r="E87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
       <c r="F87">
         <v>10</v>
       </c>
       <c r="G87">
+        <f t="shared" si="16"/>
+        <v>2159</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="18"/>
-        <v>2159</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>35.983333333333334</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>35:59</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>48:51</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
@@ -3997,34 +4288,34 @@
         <v>80</v>
       </c>
       <c r="E88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="F88">
         <v>10</v>
       </c>
       <c r="G88">
+        <f t="shared" si="16"/>
+        <v>2169</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="18"/>
-        <v>2169</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>36.15</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>36:8</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>49:25</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
@@ -4035,31 +4326,34 @@
         <v>81</v>
       </c>
       <c r="E89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="F89">
         <v>10</v>
       </c>
       <c r="G89">
+        <f t="shared" si="16"/>
+        <v>2179</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="18"/>
-        <v>2179</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>36.31666666666667</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>36:19</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>50:0</v>
+      </c>
+      <c r="P89">
+        <v>40</v>
       </c>
     </row>
     <row r="1048575" spans="14:14" x14ac:dyDescent="0.25">
